--- a/pages/accessrecord_structured/GP Connect Req Cat - Access Record Structured Data v2.2.xlsx
+++ b/pages/accessrecord_structured/GP Connect Req Cat - Access Record Structured Data v2.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mist1\OneDrive - NHS Digital\Documents\GP Connect\Requirements\Requirements - Structured\Overall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="525" documentId="8_{C4CCE15D-73F8-478D-89A7-C044948BE9F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{7F9FAD51-D42E-485F-BB6A-105098F465B1}"/>
+  <xr:revisionPtr revIDLastSave="532" documentId="8_{C4CCE15D-73F8-478D-89A7-C044948BE9F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{AB2C5E98-8732-4619-9FED-1C92F701C5BB}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="-120" windowWidth="27615" windowHeight="16440" tabRatio="748" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Management" sheetId="8" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="1401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2935" uniqueCount="1402">
   <si>
     <t>Document filename</t>
   </si>
@@ -5011,6 +5011,9 @@
   </si>
   <si>
     <t>Binary document that contains test result data. For example - image, ECG</t>
+  </si>
+  <si>
+    <t>Added Investigations, referrals and documents.</t>
   </si>
 </sst>
 </file>
@@ -5807,89 +5810,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5919,6 +5839,89 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6435,9 +6438,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6449,11 +6452,11 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
     </row>
     <row r="2" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -6473,9 +6476,9 @@
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
     </row>
     <row r="4" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
@@ -6502,7 +6505,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="11">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6516,7 +6519,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="12">
-        <v>43646</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6526,12 +6529,12 @@
       <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="155"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="165"/>
     </row>
     <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -6540,10 +6543,10 @@
       <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="153" t="s">
+      <c r="C9" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="155"/>
+      <c r="D9" s="165"/>
     </row>
     <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
@@ -6552,10 +6555,10 @@
       <c r="B10" s="12">
         <v>42985</v>
       </c>
-      <c r="C10" s="151" t="s">
+      <c r="C10" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="152"/>
+      <c r="D10" s="162"/>
     </row>
     <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
@@ -6564,10 +6567,10 @@
       <c r="B11" s="12">
         <v>42986</v>
       </c>
-      <c r="C11" s="151" t="s">
+      <c r="C11" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="152"/>
+      <c r="D11" s="162"/>
     </row>
     <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
@@ -6576,10 +6579,10 @@
       <c r="B12" s="12">
         <v>43125</v>
       </c>
-      <c r="C12" s="151" t="s">
+      <c r="C12" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="152"/>
+      <c r="D12" s="162"/>
     </row>
     <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
@@ -6588,10 +6591,10 @@
       <c r="B13" s="12">
         <v>43166</v>
       </c>
-      <c r="C13" s="151" t="s">
+      <c r="C13" s="161" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="152"/>
+      <c r="D13" s="162"/>
     </row>
     <row r="14" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
@@ -6600,10 +6603,10 @@
       <c r="B14" s="12">
         <v>43237</v>
       </c>
-      <c r="C14" s="151" t="s">
+      <c r="C14" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="152"/>
+      <c r="D14" s="162"/>
     </row>
     <row r="15" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -6612,10 +6615,10 @@
       <c r="B15" s="12">
         <v>43242</v>
       </c>
-      <c r="C15" s="151" t="s">
+      <c r="C15" s="161" t="s">
         <v>396</v>
       </c>
-      <c r="D15" s="152"/>
+      <c r="D15" s="162"/>
     </row>
     <row r="16" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
@@ -6624,10 +6627,10 @@
       <c r="B16" s="12">
         <v>43308</v>
       </c>
-      <c r="C16" s="151" t="s">
+      <c r="C16" s="161" t="s">
         <v>445</v>
       </c>
-      <c r="D16" s="152"/>
+      <c r="D16" s="162"/>
     </row>
     <row r="17" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
@@ -6636,10 +6639,10 @@
       <c r="B17" s="12">
         <v>43353</v>
       </c>
-      <c r="C17" s="151" t="s">
+      <c r="C17" s="161" t="s">
         <v>500</v>
       </c>
-      <c r="D17" s="152"/>
+      <c r="D17" s="162"/>
     </row>
     <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
@@ -6648,10 +6651,10 @@
       <c r="B18" s="12">
         <v>43391</v>
       </c>
-      <c r="C18" s="151" t="s">
+      <c r="C18" s="161" t="s">
         <v>529</v>
       </c>
-      <c r="D18" s="152"/>
+      <c r="D18" s="162"/>
     </row>
     <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="65">
@@ -6660,10 +6663,10 @@
       <c r="B19" s="12">
         <v>43567</v>
       </c>
-      <c r="C19" s="151" t="s">
+      <c r="C19" s="161" t="s">
         <v>530</v>
       </c>
-      <c r="D19" s="152"/>
+      <c r="D19" s="162"/>
     </row>
     <row r="20" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="65">
@@ -6672,44 +6675,50 @@
       <c r="B20" s="12">
         <v>43646</v>
       </c>
-      <c r="C20" s="151" t="s">
+      <c r="C20" s="161" t="s">
         <v>786</v>
       </c>
-      <c r="D20" s="152"/>
-    </row>
-    <row r="21" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-    </row>
-    <row r="22" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="153" t="s">
+      <c r="D20" s="162"/>
+    </row>
+    <row r="21" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="65">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B21" s="12">
+        <v>43738</v>
+      </c>
+      <c r="C21" s="161" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D21" s="162"/>
+    </row>
+    <row r="22" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="154"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="155"/>
-    </row>
-    <row r="23" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="B23" s="164"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="165"/>
+    </row>
+    <row r="24" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
@@ -6736,10 +6745,10 @@
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
@@ -6747,12 +6756,19 @@
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
     </row>
+    <row r="31" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -6780,7 +6796,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6807,11 +6823,11 @@
       <c r="A2" s="59" t="s">
         <v>436</v>
       </c>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="168" t="s">
         <v>967</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
@@ -7027,11 +7043,11 @@
       <c r="A2" s="59" t="s">
         <v>436</v>
       </c>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="168" t="s">
         <v>875</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
@@ -7207,11 +7223,11 @@
       <c r="A2" s="59" t="s">
         <v>436</v>
       </c>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="168" t="s">
         <v>1016</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
@@ -7404,7 +7420,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7432,11 +7448,11 @@
       <c r="A2" s="59" t="s">
         <v>436</v>
       </c>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="168" t="s">
         <v>1204</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
@@ -7585,11 +7601,11 @@
       <c r="A2" s="60" t="s">
         <v>436</v>
       </c>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="166" t="s">
         <v>449</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
@@ -7943,11 +7959,11 @@
       <c r="A2" s="60" t="s">
         <v>436</v>
       </c>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="166" t="s">
         <v>450</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
@@ -8209,9 +8225,7 @@
   </sheetPr>
   <dimension ref="A1:K277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="C276" sqref="C276"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8242,11 +8256,11 @@
       <c r="A2" s="60" t="s">
         <v>436</v>
       </c>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="166" t="s">
         <v>443</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
     </row>
     <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C3" s="15"/>
@@ -8537,14 +8551,14 @@
       <c r="E14" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="F14" s="167" t="s">
+      <c r="F14" s="175" t="s">
         <v>231</v>
       </c>
-      <c r="G14" s="159"/>
-      <c r="H14" s="168" t="s">
+      <c r="G14" s="180"/>
+      <c r="H14" s="176" t="s">
         <v>207</v>
       </c>
-      <c r="I14" s="167" t="s">
+      <c r="I14" s="175" t="s">
         <v>232</v>
       </c>
       <c r="J14" s="24"/>
@@ -8565,10 +8579,10 @@
       <c r="E15" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="F15" s="167"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="168"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
       <c r="J15" s="24"/>
     </row>
     <row r="16" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
@@ -8587,10 +8601,10 @@
       <c r="E16" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="F16" s="167"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="176"/>
       <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
@@ -8609,10 +8623,10 @@
       <c r="E17" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="F17" s="167"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="168"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
       <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
@@ -8631,10 +8645,10 @@
       <c r="E18" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="167"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="176"/>
+      <c r="I18" s="176"/>
       <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
@@ -9217,14 +9231,14 @@
       <c r="E40" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="F40" s="167" t="s">
+      <c r="F40" s="175" t="s">
         <v>307</v>
       </c>
-      <c r="G40" s="167"/>
-      <c r="H40" s="168" t="s">
+      <c r="G40" s="175"/>
+      <c r="H40" s="176" t="s">
         <v>292</v>
       </c>
-      <c r="I40" s="167" t="s">
+      <c r="I40" s="175" t="s">
         <v>232</v>
       </c>
       <c r="J40" s="24"/>
@@ -9245,10 +9259,10 @@
       <c r="E41" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="F41" s="167"/>
-      <c r="G41" s="167"/>
-      <c r="H41" s="168"/>
-      <c r="I41" s="168"/>
+      <c r="F41" s="175"/>
+      <c r="G41" s="175"/>
+      <c r="H41" s="176"/>
+      <c r="I41" s="176"/>
       <c r="J41" s="24"/>
     </row>
     <row r="42" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
@@ -9267,10 +9281,10 @@
       <c r="E42" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="F42" s="167"/>
-      <c r="G42" s="167"/>
-      <c r="H42" s="168"/>
-      <c r="I42" s="168"/>
+      <c r="F42" s="175"/>
+      <c r="G42" s="175"/>
+      <c r="H42" s="176"/>
+      <c r="I42" s="176"/>
       <c r="J42" s="24"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -9289,10 +9303,10 @@
       <c r="E43" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="F43" s="167"/>
-      <c r="G43" s="167"/>
-      <c r="H43" s="168"/>
-      <c r="I43" s="168"/>
+      <c r="F43" s="175"/>
+      <c r="G43" s="175"/>
+      <c r="H43" s="176"/>
+      <c r="I43" s="176"/>
       <c r="J43" s="24"/>
     </row>
     <row r="44" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
@@ -9311,10 +9325,10 @@
       <c r="E44" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="F44" s="167"/>
-      <c r="G44" s="167"/>
-      <c r="H44" s="168"/>
-      <c r="I44" s="168"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="175"/>
+      <c r="H44" s="176"/>
+      <c r="I44" s="176"/>
       <c r="J44" s="24"/>
     </row>
     <row r="45" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
@@ -10029,14 +10043,14 @@
       <c r="C72" s="87" t="s">
         <v>637</v>
       </c>
-      <c r="D72" s="160" t="s">
+      <c r="D72" s="181" t="s">
         <v>638</v>
       </c>
-      <c r="E72" s="160" t="s">
+      <c r="E72" s="181" t="s">
         <v>639</v>
       </c>
-      <c r="F72" s="160"/>
-      <c r="G72" s="160"/>
+      <c r="F72" s="181"/>
+      <c r="G72" s="181"/>
       <c r="H72" s="27" t="s">
         <v>629</v>
       </c>
@@ -10058,10 +10072,10 @@
       <c r="C73" s="86" t="s">
         <v>642</v>
       </c>
-      <c r="D73" s="166"/>
-      <c r="E73" s="166"/>
-      <c r="F73" s="166"/>
-      <c r="G73" s="166"/>
+      <c r="D73" s="182"/>
+      <c r="E73" s="182"/>
+      <c r="F73" s="182"/>
+      <c r="G73" s="182"/>
       <c r="H73" s="27" t="s">
         <v>629</v>
       </c>
@@ -10083,10 +10097,10 @@
       <c r="C74" s="86" t="s">
         <v>645</v>
       </c>
-      <c r="D74" s="161"/>
-      <c r="E74" s="161"/>
-      <c r="F74" s="161"/>
-      <c r="G74" s="161"/>
+      <c r="D74" s="183"/>
+      <c r="E74" s="183"/>
+      <c r="F74" s="183"/>
+      <c r="G74" s="183"/>
       <c r="H74" s="27" t="s">
         <v>629</v>
       </c>
@@ -10110,14 +10124,14 @@
       <c r="C75" s="86" t="s">
         <v>648</v>
       </c>
-      <c r="D75" s="160" t="s">
+      <c r="D75" s="181" t="s">
         <v>649</v>
       </c>
-      <c r="E75" s="160" t="s">
+      <c r="E75" s="181" t="s">
         <v>639</v>
       </c>
-      <c r="F75" s="160"/>
-      <c r="G75" s="160"/>
+      <c r="F75" s="181"/>
+      <c r="G75" s="181"/>
       <c r="H75" s="27" t="s">
         <v>629</v>
       </c>
@@ -10141,10 +10155,10 @@
       <c r="C76" s="86" t="s">
         <v>652</v>
       </c>
-      <c r="D76" s="166"/>
-      <c r="E76" s="166"/>
-      <c r="F76" s="166"/>
-      <c r="G76" s="166"/>
+      <c r="D76" s="182"/>
+      <c r="E76" s="182"/>
+      <c r="F76" s="182"/>
+      <c r="G76" s="182"/>
       <c r="H76" s="27" t="s">
         <v>629</v>
       </c>
@@ -10168,10 +10182,10 @@
       <c r="C77" s="86" t="s">
         <v>655</v>
       </c>
-      <c r="D77" s="166"/>
-      <c r="E77" s="166"/>
-      <c r="F77" s="166"/>
-      <c r="G77" s="166"/>
+      <c r="D77" s="182"/>
+      <c r="E77" s="182"/>
+      <c r="F77" s="182"/>
+      <c r="G77" s="182"/>
       <c r="H77" s="27" t="s">
         <v>629</v>
       </c>
@@ -10195,10 +10209,10 @@
       <c r="C78" s="86" t="s">
         <v>658</v>
       </c>
-      <c r="D78" s="161"/>
-      <c r="E78" s="161"/>
-      <c r="F78" s="161"/>
-      <c r="G78" s="161"/>
+      <c r="D78" s="183"/>
+      <c r="E78" s="183"/>
+      <c r="F78" s="183"/>
+      <c r="G78" s="183"/>
       <c r="H78" s="27" t="s">
         <v>629</v>
       </c>
@@ -10222,14 +10236,14 @@
       <c r="C79" s="91" t="s">
         <v>661</v>
       </c>
-      <c r="D79" s="160" t="s">
+      <c r="D79" s="181" t="s">
         <v>662</v>
       </c>
-      <c r="E79" s="162"/>
-      <c r="F79" s="160" t="s">
+      <c r="E79" s="184"/>
+      <c r="F79" s="181" t="s">
         <v>663</v>
       </c>
-      <c r="G79" s="160"/>
+      <c r="G79" s="181"/>
       <c r="H79" s="27" t="s">
         <v>629</v>
       </c>
@@ -10253,10 +10267,10 @@
       <c r="C80" s="91" t="s">
         <v>666</v>
       </c>
-      <c r="D80" s="161"/>
-      <c r="E80" s="163"/>
-      <c r="F80" s="161"/>
-      <c r="G80" s="161"/>
+      <c r="D80" s="183"/>
+      <c r="E80" s="185"/>
+      <c r="F80" s="183"/>
+      <c r="G80" s="183"/>
       <c r="H80" s="27" t="s">
         <v>629</v>
       </c>
@@ -10433,7 +10447,7 @@
       <c r="E86" s="86" t="s">
         <v>623</v>
       </c>
-      <c r="F86" s="164" t="s">
+      <c r="F86" s="186" t="s">
         <v>688</v>
       </c>
       <c r="G86" s="86" t="s">
@@ -10468,7 +10482,7 @@
       <c r="E87" s="86" t="s">
         <v>623</v>
       </c>
-      <c r="F87" s="165"/>
+      <c r="F87" s="187"/>
       <c r="G87" s="86" t="s">
         <v>695</v>
       </c>
@@ -10619,7 +10633,7 @@
       <c r="H93" s="98" t="s">
         <v>742</v>
       </c>
-      <c r="I93" s="175" t="s">
+      <c r="I93" s="177" t="s">
         <v>355</v>
       </c>
       <c r="J93" s="169"/>
@@ -10650,7 +10664,7 @@
       <c r="H94" s="98" t="s">
         <v>742</v>
       </c>
-      <c r="I94" s="176"/>
+      <c r="I94" s="178"/>
       <c r="J94" s="170"/>
       <c r="K94" s="173"/>
     </row>
@@ -10677,7 +10691,7 @@
       <c r="H95" s="98" t="s">
         <v>742</v>
       </c>
-      <c r="I95" s="176"/>
+      <c r="I95" s="178"/>
       <c r="J95" s="170"/>
       <c r="K95" s="173"/>
     </row>
@@ -10704,7 +10718,7 @@
       <c r="H96" s="98" t="s">
         <v>742</v>
       </c>
-      <c r="I96" s="176"/>
+      <c r="I96" s="178"/>
       <c r="J96" s="170"/>
       <c r="K96" s="173"/>
     </row>
@@ -10729,7 +10743,7 @@
       <c r="H97" s="98" t="s">
         <v>742</v>
       </c>
-      <c r="I97" s="177"/>
+      <c r="I97" s="179"/>
       <c r="J97" s="171"/>
       <c r="K97" s="174"/>
     </row>
@@ -12680,7 +12694,7 @@
       <c r="E171" s="137" t="s">
         <v>1115</v>
       </c>
-      <c r="F171" s="159" t="s">
+      <c r="F171" s="180" t="s">
         <v>1116</v>
       </c>
       <c r="G171" s="136" t="s">
@@ -12710,7 +12724,7 @@
       <c r="E172" s="137" t="s">
         <v>1115</v>
       </c>
-      <c r="F172" s="159"/>
+      <c r="F172" s="180"/>
       <c r="G172" s="136" t="s">
         <v>1117</v>
       </c>
@@ -13187,2343 +13201,2337 @@
         <v>194</v>
       </c>
     </row>
-    <row r="190" spans="1:11" s="179" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A190" s="180" t="s">
+    <row r="190" spans="1:11" s="150" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A190" s="151" t="s">
         <v>195</v>
       </c>
-      <c r="B190" s="180" t="s">
+      <c r="B190" s="151" t="s">
         <v>1214</v>
       </c>
-      <c r="C190" s="181"/>
-      <c r="D190" s="181" t="s">
+      <c r="C190" s="152"/>
+      <c r="D190" s="152" t="s">
         <v>1215</v>
       </c>
-      <c r="E190" s="181"/>
-      <c r="F190" s="181"/>
-      <c r="G190" s="180"/>
-      <c r="H190" s="181"/>
-      <c r="I190" s="181"/>
-      <c r="J190" s="181"/>
-      <c r="K190" s="181"/>
-    </row>
-    <row r="191" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B191" s="183" t="s">
+      <c r="E190" s="152"/>
+      <c r="F190" s="152"/>
+      <c r="G190" s="151"/>
+      <c r="H190" s="152"/>
+      <c r="I190" s="152"/>
+      <c r="J190" s="152"/>
+      <c r="K190" s="152"/>
+    </row>
+    <row r="191" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A191" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B191" s="154" t="s">
         <v>1214</v>
       </c>
-      <c r="C191" s="183" t="s">
+      <c r="C191" s="154" t="s">
         <v>899</v>
       </c>
-      <c r="D191" s="182" t="s">
+      <c r="D191" s="153" t="s">
         <v>1216</v>
       </c>
-      <c r="E191" s="182"/>
-      <c r="F191" s="182"/>
-      <c r="G191" s="183"/>
-      <c r="H191" s="183" t="s">
+      <c r="E191" s="153"/>
+      <c r="F191" s="153"/>
+      <c r="G191" s="154"/>
+      <c r="H191" s="154" t="s">
         <v>1217</v>
       </c>
-      <c r="I191" s="183" t="s">
+      <c r="I191" s="154" t="s">
         <v>452</v>
       </c>
-      <c r="J191" s="183"/>
-      <c r="K191" s="183" t="s">
+      <c r="J191" s="154"/>
+      <c r="K191" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="192" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A192" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B192" s="183" t="s">
+    <row r="192" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A192" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B192" s="154" t="s">
         <v>1214</v>
       </c>
-      <c r="C192" s="183" t="s">
+      <c r="C192" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="D192" s="182" t="s">
+      <c r="D192" s="153" t="s">
         <v>1219</v>
       </c>
-      <c r="E192" s="182"/>
-      <c r="F192" s="182"/>
-      <c r="G192" s="183"/>
-      <c r="H192" s="183" t="s">
+      <c r="E192" s="153"/>
+      <c r="F192" s="153"/>
+      <c r="G192" s="154"/>
+      <c r="H192" s="154" t="s">
         <v>1217</v>
       </c>
-      <c r="I192" s="183" t="s">
+      <c r="I192" s="154" t="s">
         <v>267</v>
       </c>
-      <c r="J192" s="183"/>
-      <c r="K192" s="183" t="s">
+      <c r="J192" s="154"/>
+      <c r="K192" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="193" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A193" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B193" s="183" t="s">
+    <row r="193" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A193" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B193" s="154" t="s">
         <v>1214</v>
       </c>
-      <c r="C193" s="183" t="s">
+      <c r="C193" s="154" t="s">
         <v>1220</v>
       </c>
-      <c r="D193" s="182" t="s">
+      <c r="D193" s="153" t="s">
         <v>1221</v>
       </c>
-      <c r="E193" s="182"/>
-      <c r="F193" s="182"/>
-      <c r="G193" s="183"/>
-      <c r="H193" s="183" t="s">
+      <c r="E193" s="153"/>
+      <c r="F193" s="153"/>
+      <c r="G193" s="154"/>
+      <c r="H193" s="154" t="s">
         <v>1217</v>
       </c>
-      <c r="I193" s="183" t="s">
+      <c r="I193" s="154" t="s">
         <v>327</v>
       </c>
-      <c r="J193" s="183"/>
-      <c r="K193" s="183" t="s">
+      <c r="J193" s="154"/>
+      <c r="K193" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="194" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A194" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B194" s="183" t="s">
+    <row r="194" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A194" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B194" s="154" t="s">
         <v>1214</v>
       </c>
-      <c r="C194" s="183" t="s">
+      <c r="C194" s="154" t="s">
         <v>1222</v>
       </c>
-      <c r="D194" s="182" t="s">
+      <c r="D194" s="153" t="s">
         <v>1223</v>
       </c>
-      <c r="E194" s="182"/>
-      <c r="F194" s="182"/>
-      <c r="G194" s="183"/>
-      <c r="H194" s="183" t="s">
+      <c r="E194" s="153"/>
+      <c r="F194" s="153"/>
+      <c r="G194" s="154"/>
+      <c r="H194" s="154" t="s">
         <v>1217</v>
       </c>
-      <c r="I194" s="183" t="s">
+      <c r="I194" s="154" t="s">
         <v>1224</v>
       </c>
-      <c r="J194" s="183"/>
-      <c r="K194" s="183" t="s">
+      <c r="J194" s="154"/>
+      <c r="K194" s="154" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="195" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A195" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B195" s="183" t="s">
+    <row r="195" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A195" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195" s="154" t="s">
         <v>1214</v>
       </c>
-      <c r="C195" s="183" t="s">
+      <c r="C195" s="154" t="s">
         <v>1226</v>
       </c>
-      <c r="D195" s="182" t="s">
+      <c r="D195" s="153" t="s">
         <v>1227</v>
       </c>
-      <c r="E195" s="182"/>
-      <c r="F195" s="182"/>
-      <c r="G195" s="183"/>
-      <c r="H195" s="183" t="s">
+      <c r="E195" s="153"/>
+      <c r="F195" s="153"/>
+      <c r="G195" s="154"/>
+      <c r="H195" s="154" t="s">
         <v>1217</v>
       </c>
-      <c r="I195" s="183" t="s">
+      <c r="I195" s="154" t="s">
         <v>785</v>
       </c>
-      <c r="J195" s="183"/>
-      <c r="K195" s="183" t="s">
+      <c r="J195" s="154"/>
+      <c r="K195" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="196" spans="1:11" s="179" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A196" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B196" s="183" t="s">
+    <row r="196" spans="1:11" s="150" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A196" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B196" s="154" t="s">
         <v>1214</v>
       </c>
-      <c r="C196" s="183" t="s">
+      <c r="C196" s="154" t="s">
         <v>1228</v>
       </c>
-      <c r="D196" s="182" t="s">
+      <c r="D196" s="153" t="s">
         <v>1229</v>
       </c>
-      <c r="E196" s="182" t="s">
+      <c r="E196" s="153" t="s">
         <v>1230</v>
       </c>
-      <c r="F196" s="182"/>
-      <c r="G196" s="183"/>
-      <c r="H196" s="183" t="s">
+      <c r="F196" s="153"/>
+      <c r="G196" s="154"/>
+      <c r="H196" s="154" t="s">
         <v>1217</v>
       </c>
-      <c r="I196" s="183" t="s">
+      <c r="I196" s="154" t="s">
         <v>1231</v>
       </c>
-      <c r="J196" s="183"/>
-      <c r="K196" s="183" t="s">
+      <c r="J196" s="154"/>
+      <c r="K196" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="197" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A197" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B197" s="183" t="s">
+    <row r="197" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A197" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" s="154" t="s">
         <v>1214</v>
       </c>
-      <c r="C197" s="183" t="s">
+      <c r="C197" s="154" t="s">
         <v>1232</v>
       </c>
-      <c r="D197" s="182" t="s">
+      <c r="D197" s="153" t="s">
         <v>1233</v>
       </c>
-      <c r="E197" s="182" t="s">
+      <c r="E197" s="153" t="s">
         <v>623</v>
       </c>
-      <c r="F197" s="182"/>
-      <c r="G197" s="182" t="s">
+      <c r="F197" s="153"/>
+      <c r="G197" s="153" t="s">
         <v>1234</v>
       </c>
-      <c r="H197" s="183" t="s">
+      <c r="H197" s="154" t="s">
         <v>1217</v>
       </c>
-      <c r="I197" s="183" t="s">
+      <c r="I197" s="154" t="s">
         <v>1235</v>
       </c>
-      <c r="J197" s="183"/>
-      <c r="K197" s="183" t="s">
+      <c r="J197" s="154"/>
+      <c r="K197" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="198" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A198" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B198" s="183" t="s">
+    <row r="198" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A198" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B198" s="154" t="s">
         <v>1214</v>
       </c>
-      <c r="C198" s="183" t="s">
+      <c r="C198" s="154" t="s">
         <v>1236</v>
       </c>
-      <c r="D198" s="182" t="s">
+      <c r="D198" s="153" t="s">
         <v>1236</v>
       </c>
-      <c r="E198" s="182"/>
-      <c r="F198" s="182"/>
-      <c r="G198" s="183"/>
-      <c r="H198" s="183" t="s">
+      <c r="E198" s="153"/>
+      <c r="F198" s="153"/>
+      <c r="G198" s="154"/>
+      <c r="H198" s="154" t="s">
         <v>1217</v>
       </c>
-      <c r="I198" s="183" t="s">
+      <c r="I198" s="154" t="s">
         <v>1195</v>
       </c>
-      <c r="J198" s="183"/>
-      <c r="K198" s="183"/>
-    </row>
-    <row r="199" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B199" s="183" t="s">
+      <c r="J198" s="154"/>
+      <c r="K198" s="154"/>
+    </row>
+    <row r="199" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A199" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" s="154" t="s">
         <v>1214</v>
       </c>
-      <c r="C199" s="183" t="s">
+      <c r="C199" s="154" t="s">
         <v>1237</v>
       </c>
-      <c r="D199" s="182" t="s">
+      <c r="D199" s="153" t="s">
         <v>1237</v>
       </c>
-      <c r="E199" s="182"/>
-      <c r="F199" s="182"/>
-      <c r="G199" s="183"/>
-      <c r="H199" s="183" t="s">
+      <c r="E199" s="153"/>
+      <c r="F199" s="153"/>
+      <c r="G199" s="154"/>
+      <c r="H199" s="154" t="s">
         <v>1217</v>
       </c>
-      <c r="I199" s="183" t="s">
+      <c r="I199" s="154" t="s">
         <v>1238</v>
       </c>
-      <c r="J199" s="183"/>
-      <c r="K199" s="183"/>
-    </row>
-    <row r="200" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A200" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B200" s="183" t="s">
+      <c r="J199" s="154"/>
+      <c r="K199" s="154"/>
+    </row>
+    <row r="200" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A200" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200" s="154" t="s">
         <v>1214</v>
       </c>
-      <c r="C200" s="183" t="s">
+      <c r="C200" s="154" t="s">
         <v>1239</v>
       </c>
-      <c r="D200" s="182" t="s">
+      <c r="D200" s="153" t="s">
         <v>1239</v>
       </c>
-      <c r="E200" s="182"/>
-      <c r="F200" s="182"/>
-      <c r="G200" s="183"/>
-      <c r="H200" s="183" t="s">
+      <c r="E200" s="153"/>
+      <c r="F200" s="153"/>
+      <c r="G200" s="154"/>
+      <c r="H200" s="154" t="s">
         <v>1217</v>
       </c>
-      <c r="I200" s="183" t="s">
+      <c r="I200" s="154" t="s">
         <v>903</v>
       </c>
-      <c r="J200" s="183"/>
-      <c r="K200" s="183"/>
-    </row>
-    <row r="201" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A201" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B201" s="183" t="s">
+      <c r="J200" s="154"/>
+      <c r="K200" s="154"/>
+    </row>
+    <row r="201" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A201" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" s="154" t="s">
         <v>1214</v>
       </c>
-      <c r="C201" s="183" t="s">
+      <c r="C201" s="154" t="s">
         <v>1240</v>
       </c>
-      <c r="D201" s="182" t="s">
+      <c r="D201" s="153" t="s">
         <v>1241</v>
       </c>
-      <c r="E201" s="182"/>
-      <c r="F201" s="182"/>
-      <c r="G201" s="183"/>
-      <c r="H201" s="183" t="s">
+      <c r="E201" s="153"/>
+      <c r="F201" s="153"/>
+      <c r="G201" s="154"/>
+      <c r="H201" s="154" t="s">
         <v>1217</v>
       </c>
-      <c r="I201" s="183" t="s">
+      <c r="I201" s="154" t="s">
         <v>1242</v>
       </c>
-      <c r="J201" s="183"/>
-      <c r="K201" s="183" t="s">
+      <c r="J201" s="154"/>
+      <c r="K201" s="154" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="202" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A202" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B202" s="183" t="s">
+    <row r="202" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A202" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B202" s="154" t="s">
         <v>1214</v>
       </c>
-      <c r="C202" s="183" t="s">
+      <c r="C202" s="154" t="s">
         <v>1244</v>
       </c>
-      <c r="D202" s="182" t="s">
+      <c r="D202" s="153" t="s">
         <v>1245</v>
       </c>
-      <c r="E202" s="182"/>
-      <c r="F202" s="182"/>
-      <c r="G202" s="183"/>
-      <c r="H202" s="183" t="s">
+      <c r="E202" s="153"/>
+      <c r="F202" s="153"/>
+      <c r="G202" s="154"/>
+      <c r="H202" s="154" t="s">
         <v>1217</v>
       </c>
-      <c r="I202" s="183" t="s">
+      <c r="I202" s="154" t="s">
         <v>1246</v>
       </c>
-      <c r="J202" s="183"/>
-      <c r="K202" s="183" t="s">
+      <c r="J202" s="154"/>
+      <c r="K202" s="154" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="203" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A203" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B203" s="183" t="s">
+    <row r="203" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A203" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B203" s="154" t="s">
         <v>1214</v>
       </c>
-      <c r="C203" s="183" t="s">
+      <c r="C203" s="154" t="s">
         <v>1247</v>
       </c>
-      <c r="D203" s="182" t="s">
+      <c r="D203" s="153" t="s">
         <v>1247</v>
       </c>
-      <c r="E203" s="182"/>
-      <c r="F203" s="182"/>
-      <c r="G203" s="183"/>
-      <c r="H203" s="183" t="s">
+      <c r="E203" s="153"/>
+      <c r="F203" s="153"/>
+      <c r="G203" s="154"/>
+      <c r="H203" s="154" t="s">
         <v>1217</v>
       </c>
-      <c r="I203" s="183" t="s">
+      <c r="I203" s="154" t="s">
         <v>1238</v>
       </c>
-      <c r="J203" s="183"/>
-      <c r="K203" s="183"/>
-    </row>
-    <row r="204" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A204" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B204" s="183" t="s">
+      <c r="J203" s="154"/>
+      <c r="K203" s="154"/>
+    </row>
+    <row r="204" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A204" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B204" s="154" t="s">
         <v>1214</v>
       </c>
-      <c r="C204" s="183" t="s">
+      <c r="C204" s="154" t="s">
         <v>1248</v>
       </c>
-      <c r="D204" s="182" t="s">
+      <c r="D204" s="153" t="s">
         <v>1248</v>
       </c>
-      <c r="E204" s="182"/>
-      <c r="F204" s="182"/>
-      <c r="G204" s="183"/>
-      <c r="H204" s="183" t="s">
+      <c r="E204" s="153"/>
+      <c r="F204" s="153"/>
+      <c r="G204" s="154"/>
+      <c r="H204" s="154" t="s">
         <v>1217</v>
       </c>
-      <c r="I204" s="183" t="s">
+      <c r="I204" s="154" t="s">
         <v>1238</v>
       </c>
-      <c r="J204" s="183"/>
-      <c r="K204" s="183"/>
-    </row>
-    <row r="205" spans="1:11" s="179" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A205" s="180" t="s">
+      <c r="J204" s="154"/>
+      <c r="K204" s="154"/>
+    </row>
+    <row r="205" spans="1:11" s="150" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A205" s="151" t="s">
         <v>195</v>
       </c>
-      <c r="B205" s="180" t="s">
+      <c r="B205" s="151" t="s">
         <v>1254</v>
       </c>
-      <c r="C205" s="181"/>
-      <c r="D205" s="181" t="s">
+      <c r="C205" s="152"/>
+      <c r="D205" s="152" t="s">
         <v>1255</v>
       </c>
-      <c r="E205" s="181"/>
-      <c r="F205" s="181"/>
-      <c r="G205" s="181" t="s">
+      <c r="E205" s="152"/>
+      <c r="F205" s="152"/>
+      <c r="G205" s="152" t="s">
         <v>1256</v>
       </c>
-      <c r="H205" s="181"/>
-      <c r="I205" s="181"/>
-      <c r="J205" s="181"/>
-      <c r="K205" s="181" t="s">
+      <c r="H205" s="152"/>
+      <c r="I205" s="152"/>
+      <c r="J205" s="152"/>
+      <c r="K205" s="152" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="206" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A206" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B206" s="183" t="s">
+    <row r="206" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A206" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B206" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="C206" s="182" t="s">
+      <c r="C206" s="153" t="s">
         <v>899</v>
       </c>
-      <c r="D206" s="182" t="s">
+      <c r="D206" s="153" t="s">
         <v>1257</v>
       </c>
-      <c r="E206" s="182"/>
-      <c r="F206" s="182"/>
-      <c r="G206" s="183"/>
-      <c r="H206" s="183" t="s">
+      <c r="E206" s="153"/>
+      <c r="F206" s="153"/>
+      <c r="G206" s="154"/>
+      <c r="H206" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="I206" s="183" t="s">
+      <c r="I206" s="154" t="s">
         <v>452</v>
       </c>
-      <c r="J206" s="183"/>
-      <c r="K206" s="183" t="s">
+      <c r="J206" s="154"/>
+      <c r="K206" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="207" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A207" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B207" s="183" t="s">
+    <row r="207" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A207" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B207" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="C207" s="182" t="s">
+      <c r="C207" s="153" t="s">
         <v>1258</v>
       </c>
-      <c r="D207" s="184" t="s">
+      <c r="D207" s="155" t="s">
         <v>1259</v>
       </c>
-      <c r="E207" s="184"/>
-      <c r="F207" s="184"/>
-      <c r="G207" s="185"/>
-      <c r="H207" s="183" t="s">
+      <c r="E207" s="155"/>
+      <c r="F207" s="155"/>
+      <c r="G207" s="156"/>
+      <c r="H207" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="I207" s="185" t="s">
+      <c r="I207" s="156" t="s">
         <v>1260</v>
       </c>
-      <c r="J207" s="185"/>
-      <c r="K207" s="185"/>
-    </row>
-    <row r="208" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A208" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B208" s="183" t="s">
+      <c r="J207" s="156"/>
+      <c r="K207" s="156"/>
+    </row>
+    <row r="208" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A208" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B208" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="C208" s="182" t="s">
+      <c r="C208" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="D208" s="182" t="s">
+      <c r="D208" s="153" t="s">
         <v>1261</v>
       </c>
-      <c r="E208" s="182"/>
-      <c r="F208" s="182"/>
-      <c r="G208" s="183" t="s">
+      <c r="E208" s="153"/>
+      <c r="F208" s="153"/>
+      <c r="G208" s="154" t="s">
         <v>1262</v>
       </c>
-      <c r="H208" s="183" t="s">
+      <c r="H208" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="I208" s="183" t="s">
+      <c r="I208" s="154" t="s">
         <v>267</v>
       </c>
-      <c r="J208" s="183"/>
-      <c r="K208" s="183" t="s">
+      <c r="J208" s="154"/>
+      <c r="K208" s="154" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="209" spans="1:11" s="179" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A209" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B209" s="183" t="s">
+    <row r="209" spans="1:11" s="150" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A209" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B209" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="C209" s="182" t="s">
+      <c r="C209" s="153" t="s">
         <v>1263</v>
       </c>
-      <c r="D209" s="182" t="s">
+      <c r="D209" s="153" t="s">
         <v>1264</v>
       </c>
-      <c r="E209" s="182"/>
-      <c r="F209" s="182"/>
-      <c r="G209" s="182" t="s">
+      <c r="E209" s="153"/>
+      <c r="F209" s="153"/>
+      <c r="G209" s="153" t="s">
         <v>1265</v>
       </c>
-      <c r="H209" s="183" t="s">
+      <c r="H209" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="I209" s="183" t="s">
+      <c r="I209" s="154" t="s">
         <v>913</v>
       </c>
-      <c r="J209" s="183"/>
-      <c r="K209" s="183" t="s">
+      <c r="J209" s="154"/>
+      <c r="K209" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="210" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A210" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B210" s="183" t="s">
+    <row r="210" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A210" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B210" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="C210" s="182" t="s">
+      <c r="C210" s="153" t="s">
         <v>1266</v>
       </c>
-      <c r="D210" s="182" t="s">
+      <c r="D210" s="153" t="s">
         <v>1267</v>
       </c>
-      <c r="E210" s="182"/>
-      <c r="F210" s="182"/>
-      <c r="G210" s="183"/>
-      <c r="H210" s="183" t="s">
+      <c r="E210" s="153"/>
+      <c r="F210" s="153"/>
+      <c r="G210" s="154"/>
+      <c r="H210" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="I210" s="183" t="s">
+      <c r="I210" s="154" t="s">
         <v>1268</v>
       </c>
-      <c r="J210" s="183"/>
-      <c r="K210" s="183" t="s">
+      <c r="J210" s="154"/>
+      <c r="K210" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="211" spans="1:11" s="179" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A211" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B211" s="183" t="s">
+    <row r="211" spans="1:11" s="150" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A211" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B211" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="C211" s="182" t="s">
+      <c r="C211" s="153" t="s">
         <v>1269</v>
       </c>
-      <c r="D211" s="182" t="s">
+      <c r="D211" s="153" t="s">
         <v>1270</v>
       </c>
-      <c r="E211" s="182" t="s">
+      <c r="E211" s="153" t="s">
         <v>1271</v>
       </c>
-      <c r="F211" s="182"/>
-      <c r="G211" s="183"/>
-      <c r="H211" s="183" t="s">
+      <c r="F211" s="153"/>
+      <c r="G211" s="154"/>
+      <c r="H211" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="I211" s="183" t="s">
+      <c r="I211" s="154" t="s">
         <v>1272</v>
       </c>
-      <c r="J211" s="183"/>
-      <c r="K211" s="183" t="s">
+      <c r="J211" s="154"/>
+      <c r="K211" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="212" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A212" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B212" s="183" t="s">
+    <row r="212" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A212" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B212" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="C212" s="182" t="s">
+      <c r="C212" s="153" t="s">
         <v>1273</v>
       </c>
-      <c r="D212" s="182" t="s">
+      <c r="D212" s="153" t="s">
         <v>1274</v>
       </c>
-      <c r="E212" s="182"/>
-      <c r="F212" s="182"/>
-      <c r="G212" s="183"/>
-      <c r="H212" s="183" t="s">
+      <c r="E212" s="153"/>
+      <c r="F212" s="153"/>
+      <c r="G212" s="154"/>
+      <c r="H212" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="I212" s="183" t="s">
+      <c r="I212" s="154" t="s">
         <v>1275</v>
       </c>
-      <c r="J212" s="183"/>
-      <c r="K212" s="183" t="s">
+      <c r="J212" s="154"/>
+      <c r="K212" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="213" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A213" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B213" s="183" t="s">
+    <row r="213" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A213" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B213" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="C213" s="182" t="s">
+      <c r="C213" s="153" t="s">
         <v>1276</v>
       </c>
-      <c r="D213" s="182" t="s">
+      <c r="D213" s="153" t="s">
         <v>1277</v>
       </c>
-      <c r="E213" s="182"/>
-      <c r="F213" s="182"/>
-      <c r="G213" s="183"/>
-      <c r="H213" s="183" t="s">
+      <c r="E213" s="153"/>
+      <c r="F213" s="153"/>
+      <c r="G213" s="154"/>
+      <c r="H213" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="I213" s="183" t="s">
+      <c r="I213" s="154" t="s">
         <v>1278</v>
       </c>
-      <c r="J213" s="183"/>
-      <c r="K213" s="183" t="s">
+      <c r="J213" s="154"/>
+      <c r="K213" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="214" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A214" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B214" s="183" t="s">
+    <row r="214" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A214" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B214" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="C214" s="182" t="s">
+      <c r="C214" s="153" t="s">
         <v>1279</v>
       </c>
-      <c r="D214" s="182" t="s">
+      <c r="D214" s="153" t="s">
         <v>1280</v>
       </c>
-      <c r="E214" s="182"/>
-      <c r="F214" s="182"/>
-      <c r="G214" s="182"/>
-      <c r="H214" s="183" t="s">
+      <c r="E214" s="153"/>
+      <c r="F214" s="153"/>
+      <c r="G214" s="153"/>
+      <c r="H214" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="I214" s="183" t="s">
+      <c r="I214" s="154" t="s">
         <v>1281</v>
       </c>
-      <c r="J214" s="183"/>
-      <c r="K214" s="183" t="s">
+      <c r="J214" s="154"/>
+      <c r="K214" s="154" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="215" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A215" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B215" s="183" t="s">
+    <row r="215" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A215" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B215" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="C215" s="182" t="s">
+      <c r="C215" s="153" t="s">
         <v>1282</v>
       </c>
-      <c r="D215" s="182" t="s">
+      <c r="D215" s="153" t="s">
         <v>1283</v>
       </c>
-      <c r="E215" s="182"/>
-      <c r="F215" s="182"/>
-      <c r="G215" s="182" t="s">
+      <c r="E215" s="153"/>
+      <c r="F215" s="153"/>
+      <c r="G215" s="153" t="s">
         <v>1284</v>
       </c>
-      <c r="H215" s="183" t="s">
+      <c r="H215" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="I215" s="183" t="s">
+      <c r="I215" s="154" t="s">
         <v>1285</v>
       </c>
-      <c r="J215" s="183"/>
-      <c r="K215" s="183"/>
-    </row>
-    <row r="216" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A216" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B216" s="183" t="s">
+      <c r="J215" s="154"/>
+      <c r="K215" s="154"/>
+    </row>
+    <row r="216" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A216" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B216" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="C216" s="182" t="s">
+      <c r="C216" s="153" t="s">
         <v>1286</v>
       </c>
-      <c r="D216" s="182" t="s">
+      <c r="D216" s="153" t="s">
         <v>1287</v>
       </c>
-      <c r="E216" s="182" t="s">
+      <c r="E216" s="153" t="s">
         <v>1252</v>
       </c>
-      <c r="F216" s="182"/>
-      <c r="G216" s="183"/>
-      <c r="H216" s="183" t="s">
+      <c r="F216" s="153"/>
+      <c r="G216" s="154"/>
+      <c r="H216" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="I216" s="183" t="s">
+      <c r="I216" s="154" t="s">
         <v>288</v>
       </c>
-      <c r="J216" s="183"/>
-      <c r="K216" s="183" t="s">
+      <c r="J216" s="154"/>
+      <c r="K216" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="217" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A217" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B217" s="183" t="s">
+    <row r="217" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A217" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B217" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="C217" s="182" t="s">
+      <c r="C217" s="153" t="s">
         <v>1239</v>
       </c>
-      <c r="D217" s="182" t="s">
+      <c r="D217" s="153" t="s">
         <v>1239</v>
       </c>
-      <c r="E217" s="183"/>
-      <c r="F217" s="183"/>
-      <c r="G217" s="183"/>
-      <c r="H217" s="183" t="s">
+      <c r="E217" s="154"/>
+      <c r="F217" s="154"/>
+      <c r="G217" s="154"/>
+      <c r="H217" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="I217" s="183" t="s">
+      <c r="I217" s="154" t="s">
         <v>903</v>
       </c>
-      <c r="J217" s="183"/>
-      <c r="K217" s="183"/>
-    </row>
-    <row r="218" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A218" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B218" s="183" t="s">
+      <c r="J217" s="154"/>
+      <c r="K217" s="154"/>
+    </row>
+    <row r="218" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A218" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B218" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="C218" s="182" t="s">
+      <c r="C218" s="153" t="s">
         <v>1288</v>
       </c>
-      <c r="D218" s="182" t="s">
+      <c r="D218" s="153" t="s">
         <v>1288</v>
       </c>
-      <c r="E218" s="183"/>
-      <c r="F218" s="183"/>
-      <c r="G218" s="183"/>
-      <c r="H218" s="183" t="s">
+      <c r="E218" s="154"/>
+      <c r="F218" s="154"/>
+      <c r="G218" s="154"/>
+      <c r="H218" s="154" t="s">
         <v>1254</v>
       </c>
-      <c r="I218" s="183" t="s">
+      <c r="I218" s="154" t="s">
         <v>1289</v>
       </c>
-      <c r="J218" s="183"/>
-      <c r="K218" s="183"/>
-    </row>
-    <row r="219" spans="1:11" s="179" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A219" s="180" t="s">
+      <c r="J218" s="154"/>
+      <c r="K218" s="154"/>
+    </row>
+    <row r="219" spans="1:11" s="150" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A219" s="151" t="s">
         <v>195</v>
       </c>
-      <c r="B219" s="180" t="s">
+      <c r="B219" s="151" t="s">
         <v>1290</v>
       </c>
-      <c r="C219" s="181"/>
-      <c r="D219" s="181" t="s">
+      <c r="C219" s="152"/>
+      <c r="D219" s="152" t="s">
         <v>1291</v>
       </c>
-      <c r="E219" s="181"/>
-      <c r="F219" s="181"/>
-      <c r="G219" s="181"/>
-      <c r="H219" s="181"/>
-      <c r="I219" s="181"/>
-      <c r="J219" s="181"/>
-      <c r="K219" s="181"/>
-    </row>
-    <row r="220" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A220" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B220" s="183" t="s">
+      <c r="E219" s="152"/>
+      <c r="F219" s="152"/>
+      <c r="G219" s="152"/>
+      <c r="H219" s="152"/>
+      <c r="I219" s="152"/>
+      <c r="J219" s="152"/>
+      <c r="K219" s="152"/>
+    </row>
+    <row r="220" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A220" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B220" s="154" t="s">
         <v>1290</v>
       </c>
-      <c r="C220" s="182" t="s">
+      <c r="C220" s="153" t="s">
         <v>899</v>
       </c>
-      <c r="D220" s="182" t="s">
+      <c r="D220" s="153" t="s">
         <v>1292</v>
       </c>
-      <c r="E220" s="182"/>
-      <c r="F220" s="182"/>
-      <c r="G220" s="183"/>
-      <c r="H220" s="183" t="s">
+      <c r="E220" s="153"/>
+      <c r="F220" s="153"/>
+      <c r="G220" s="154"/>
+      <c r="H220" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I220" s="183" t="s">
+      <c r="I220" s="154" t="s">
         <v>452</v>
       </c>
-      <c r="J220" s="183"/>
-      <c r="K220" s="183"/>
-    </row>
-    <row r="221" spans="1:11" s="179" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A221" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B221" s="183" t="s">
+      <c r="J220" s="154"/>
+      <c r="K220" s="154"/>
+    </row>
+    <row r="221" spans="1:11" s="150" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A221" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B221" s="154" t="s">
         <v>1290</v>
       </c>
-      <c r="C221" s="182" t="s">
+      <c r="C221" s="153" t="s">
         <v>187</v>
       </c>
-      <c r="D221" s="182" t="s">
+      <c r="D221" s="153" t="s">
         <v>1294</v>
       </c>
-      <c r="E221" s="182" t="s">
+      <c r="E221" s="153" t="s">
         <v>1271</v>
       </c>
-      <c r="F221" s="182"/>
-      <c r="G221" s="183"/>
-      <c r="H221" s="183" t="s">
+      <c r="F221" s="153"/>
+      <c r="G221" s="154"/>
+      <c r="H221" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I221" s="183" t="s">
+      <c r="I221" s="154" t="s">
         <v>1224</v>
       </c>
-      <c r="J221" s="183"/>
-      <c r="K221" s="183"/>
-    </row>
-    <row r="222" spans="1:11" s="179" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A222" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B222" s="183" t="s">
+      <c r="J221" s="154"/>
+      <c r="K221" s="154"/>
+    </row>
+    <row r="222" spans="1:11" s="150" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A222" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B222" s="154" t="s">
         <v>1290</v>
       </c>
-      <c r="C222" s="182" t="s">
+      <c r="C222" s="153" t="s">
         <v>1295</v>
       </c>
-      <c r="D222" s="182" t="s">
+      <c r="D222" s="153" t="s">
         <v>1296</v>
       </c>
-      <c r="E222" s="182" t="s">
+      <c r="E222" s="153" t="s">
         <v>1271</v>
       </c>
-      <c r="F222" s="182"/>
-      <c r="G222" s="183" t="s">
+      <c r="F222" s="153"/>
+      <c r="G222" s="154" t="s">
         <v>1297</v>
       </c>
-      <c r="H222" s="183" t="s">
+      <c r="H222" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I222" s="183" t="s">
+      <c r="I222" s="154" t="s">
         <v>1224</v>
       </c>
-      <c r="J222" s="183"/>
-      <c r="K222" s="183"/>
-    </row>
-    <row r="223" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A223" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B223" s="183" t="s">
+      <c r="J222" s="154"/>
+      <c r="K222" s="154"/>
+    </row>
+    <row r="223" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A223" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B223" s="154" t="s">
         <v>1290</v>
       </c>
-      <c r="C223" s="182" t="s">
+      <c r="C223" s="153" t="s">
         <v>1228</v>
       </c>
-      <c r="D223" s="182" t="s">
+      <c r="D223" s="153" t="s">
         <v>1298</v>
       </c>
-      <c r="E223" s="182" t="s">
+      <c r="E223" s="153" t="s">
         <v>1230</v>
       </c>
-      <c r="F223" s="182"/>
-      <c r="G223" s="183"/>
-      <c r="H223" s="183" t="s">
+      <c r="F223" s="153"/>
+      <c r="G223" s="154"/>
+      <c r="H223" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I223" s="183" t="s">
+      <c r="I223" s="154" t="s">
         <v>1299</v>
       </c>
-      <c r="J223" s="183"/>
-      <c r="K223" s="183"/>
-    </row>
-    <row r="224" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A224" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B224" s="183" t="s">
+      <c r="J223" s="154"/>
+      <c r="K223" s="154"/>
+    </row>
+    <row r="224" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A224" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B224" s="154" t="s">
         <v>1290</v>
       </c>
-      <c r="C224" s="182" t="s">
+      <c r="C224" s="153" t="s">
         <v>1250</v>
       </c>
-      <c r="D224" s="182" t="s">
+      <c r="D224" s="153" t="s">
         <v>1251</v>
       </c>
-      <c r="E224" s="182" t="s">
+      <c r="E224" s="153" t="s">
         <v>623</v>
       </c>
-      <c r="F224" s="182"/>
-      <c r="G224" s="182" t="s">
+      <c r="F224" s="153"/>
+      <c r="G224" s="153" t="s">
         <v>1300</v>
       </c>
-      <c r="H224" s="183" t="s">
+      <c r="H224" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I224" s="183" t="s">
+      <c r="I224" s="154" t="s">
         <v>1301</v>
       </c>
-      <c r="J224" s="183"/>
-      <c r="K224" s="183"/>
-    </row>
-    <row r="225" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A225" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B225" s="183" t="s">
+      <c r="J224" s="154"/>
+      <c r="K224" s="154"/>
+    </row>
+    <row r="225" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A225" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B225" s="154" t="s">
         <v>1290</v>
       </c>
-      <c r="C225" s="182" t="s">
+      <c r="C225" s="153" t="s">
         <v>1237</v>
       </c>
-      <c r="D225" s="182" t="s">
+      <c r="D225" s="153" t="s">
         <v>1237</v>
       </c>
-      <c r="E225" s="182"/>
-      <c r="F225" s="182"/>
-      <c r="G225" s="183"/>
-      <c r="H225" s="183" t="s">
+      <c r="E225" s="153"/>
+      <c r="F225" s="153"/>
+      <c r="G225" s="154"/>
+      <c r="H225" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I225" s="183" t="s">
+      <c r="I225" s="154" t="s">
         <v>1302</v>
       </c>
-      <c r="J225" s="183"/>
-      <c r="K225" s="183"/>
-    </row>
-    <row r="226" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A226" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B226" s="183" t="s">
+      <c r="J225" s="154"/>
+      <c r="K225" s="154"/>
+    </row>
+    <row r="226" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A226" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B226" s="154" t="s">
         <v>1290</v>
       </c>
-      <c r="C226" s="182" t="s">
+      <c r="C226" s="153" t="s">
         <v>1245</v>
       </c>
-      <c r="D226" s="182" t="s">
+      <c r="D226" s="153" t="s">
         <v>1245</v>
       </c>
-      <c r="E226" s="182"/>
-      <c r="F226" s="182"/>
-      <c r="G226" s="183"/>
-      <c r="H226" s="183" t="s">
+      <c r="E226" s="153"/>
+      <c r="F226" s="153"/>
+      <c r="G226" s="154"/>
+      <c r="H226" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I226" s="183" t="s">
+      <c r="I226" s="154" t="s">
         <v>1246</v>
       </c>
-      <c r="J226" s="183"/>
-      <c r="K226" s="183"/>
-    </row>
-    <row r="227" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A227" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B227" s="183" t="s">
+      <c r="J226" s="154"/>
+      <c r="K226" s="154"/>
+    </row>
+    <row r="227" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A227" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B227" s="154" t="s">
         <v>1290</v>
       </c>
-      <c r="C227" s="182" t="s">
+      <c r="C227" s="153" t="s">
         <v>1248</v>
       </c>
-      <c r="D227" s="182" t="s">
+      <c r="D227" s="153" t="s">
         <v>1248</v>
       </c>
-      <c r="E227" s="182"/>
-      <c r="F227" s="182"/>
-      <c r="G227" s="183"/>
-      <c r="H227" s="183" t="s">
+      <c r="E227" s="153"/>
+      <c r="F227" s="153"/>
+      <c r="G227" s="154"/>
+      <c r="H227" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I227" s="183" t="s">
+      <c r="I227" s="154" t="s">
         <v>1302</v>
       </c>
-      <c r="J227" s="183"/>
-      <c r="K227" s="183"/>
-    </row>
-    <row r="228" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A228" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B228" s="183" t="s">
+      <c r="J227" s="154"/>
+      <c r="K227" s="154"/>
+    </row>
+    <row r="228" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A228" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B228" s="154" t="s">
         <v>1290</v>
       </c>
-      <c r="C228" s="182" t="s">
+      <c r="C228" s="153" t="s">
         <v>1303</v>
       </c>
-      <c r="D228" s="182" t="s">
+      <c r="D228" s="153" t="s">
         <v>1303</v>
       </c>
-      <c r="E228" s="182"/>
-      <c r="F228" s="182"/>
-      <c r="G228" s="183"/>
-      <c r="H228" s="183" t="s">
+      <c r="E228" s="153"/>
+      <c r="F228" s="153"/>
+      <c r="G228" s="154"/>
+      <c r="H228" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I228" s="183" t="s">
+      <c r="I228" s="154" t="s">
         <v>1242</v>
       </c>
-      <c r="J228" s="183"/>
-      <c r="K228" s="183"/>
-    </row>
-    <row r="229" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A229" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B229" s="183" t="s">
+      <c r="J228" s="154"/>
+      <c r="K228" s="154"/>
+    </row>
+    <row r="229" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A229" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B229" s="154" t="s">
         <v>1290</v>
       </c>
-      <c r="C229" s="182" t="s">
+      <c r="C229" s="153" t="s">
         <v>1239</v>
       </c>
-      <c r="D229" s="182" t="s">
+      <c r="D229" s="153" t="s">
         <v>1239</v>
       </c>
-      <c r="E229" s="183"/>
-      <c r="F229" s="183"/>
-      <c r="G229" s="183"/>
-      <c r="H229" s="183" t="s">
+      <c r="E229" s="154"/>
+      <c r="F229" s="154"/>
+      <c r="G229" s="154"/>
+      <c r="H229" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I229" s="183" t="s">
+      <c r="I229" s="154" t="s">
         <v>903</v>
       </c>
-      <c r="J229" s="183"/>
-      <c r="K229" s="183"/>
-    </row>
-    <row r="230" spans="1:11" s="179" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A230" s="180" t="s">
+      <c r="J229" s="154"/>
+      <c r="K229" s="154"/>
+    </row>
+    <row r="230" spans="1:11" s="150" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A230" s="151" t="s">
         <v>195</v>
       </c>
-      <c r="B230" s="180" t="s">
+      <c r="B230" s="151" t="s">
         <v>1249</v>
       </c>
-      <c r="C230" s="181"/>
-      <c r="D230" s="181" t="s">
+      <c r="C230" s="152"/>
+      <c r="D230" s="152" t="s">
         <v>1304</v>
       </c>
-      <c r="E230" s="181"/>
-      <c r="F230" s="181"/>
-      <c r="G230" s="180"/>
-      <c r="H230" s="181"/>
-      <c r="I230" s="181"/>
-      <c r="J230" s="181"/>
-      <c r="K230" s="181"/>
-    </row>
-    <row r="231" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A231" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B231" s="183" t="s">
+      <c r="E230" s="152"/>
+      <c r="F230" s="152"/>
+      <c r="G230" s="151"/>
+      <c r="H230" s="152"/>
+      <c r="I230" s="152"/>
+      <c r="J230" s="152"/>
+      <c r="K230" s="152"/>
+    </row>
+    <row r="231" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A231" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B231" s="154" t="s">
         <v>1249</v>
       </c>
-      <c r="C231" s="182" t="s">
+      <c r="C231" s="153" t="s">
         <v>899</v>
       </c>
-      <c r="D231" s="182" t="s">
+      <c r="D231" s="153" t="s">
         <v>1305</v>
       </c>
-      <c r="E231" s="182"/>
-      <c r="F231" s="182"/>
-      <c r="G231" s="183"/>
-      <c r="H231" s="183" t="s">
+      <c r="E231" s="153"/>
+      <c r="F231" s="153"/>
+      <c r="G231" s="154"/>
+      <c r="H231" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I231" s="183" t="s">
+      <c r="I231" s="154" t="s">
         <v>452</v>
       </c>
-      <c r="J231" s="183"/>
-      <c r="K231" s="183" t="s">
+      <c r="J231" s="154"/>
+      <c r="K231" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="232" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A232" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B232" s="183" t="s">
+    <row r="232" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A232" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B232" s="154" t="s">
         <v>1249</v>
       </c>
-      <c r="C232" s="182" t="s">
+      <c r="C232" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="D232" s="182" t="s">
+      <c r="D232" s="153" t="s">
         <v>1306</v>
       </c>
-      <c r="E232" s="182">
+      <c r="E232" s="153">
         <v>3.29</v>
       </c>
-      <c r="F232" s="182"/>
-      <c r="G232" s="183"/>
-      <c r="H232" s="183" t="s">
+      <c r="F232" s="153"/>
+      <c r="G232" s="154"/>
+      <c r="H232" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I232" s="183" t="s">
+      <c r="I232" s="154" t="s">
         <v>267</v>
       </c>
-      <c r="J232" s="183"/>
-      <c r="K232" s="183" t="s">
+      <c r="J232" s="154"/>
+      <c r="K232" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="233" spans="1:11" s="179" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A233" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B233" s="183" t="s">
+    <row r="233" spans="1:11" s="150" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A233" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B233" s="154" t="s">
         <v>1249</v>
       </c>
-      <c r="C233" s="182" t="s">
+      <c r="C233" s="153" t="s">
         <v>1307</v>
       </c>
-      <c r="D233" s="182" t="s">
+      <c r="D233" s="153" t="s">
         <v>1308</v>
       </c>
-      <c r="E233" s="182">
+      <c r="E233" s="153">
         <v>3.29</v>
       </c>
-      <c r="F233" s="182"/>
-      <c r="G233" s="182" t="s">
+      <c r="F233" s="153"/>
+      <c r="G233" s="153" t="s">
         <v>1309</v>
       </c>
-      <c r="H233" s="183" t="s">
+      <c r="H233" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I233" s="183" t="s">
+      <c r="I233" s="154" t="s">
         <v>327</v>
       </c>
-      <c r="J233" s="183"/>
-      <c r="K233" s="183" t="s">
+      <c r="J233" s="154"/>
+      <c r="K233" s="154" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="234" spans="1:11" s="179" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A234" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B234" s="183" t="s">
+    <row r="234" spans="1:11" s="150" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A234" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B234" s="154" t="s">
         <v>1249</v>
       </c>
-      <c r="C234" s="182" t="s">
+      <c r="C234" s="153" t="s">
         <v>1310</v>
       </c>
-      <c r="D234" s="182" t="s">
+      <c r="D234" s="153" t="s">
         <v>1311</v>
       </c>
-      <c r="E234" s="182" t="s">
+      <c r="E234" s="153" t="s">
         <v>1271</v>
       </c>
-      <c r="F234" s="182"/>
-      <c r="G234" s="183"/>
-      <c r="H234" s="183" t="s">
+      <c r="F234" s="153"/>
+      <c r="G234" s="154"/>
+      <c r="H234" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I234" s="183" t="s">
+      <c r="I234" s="154" t="s">
         <v>1312</v>
       </c>
-      <c r="J234" s="183"/>
-      <c r="K234" s="183" t="s">
+      <c r="J234" s="154"/>
+      <c r="K234" s="154" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="235" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A235" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B235" s="183" t="s">
+    <row r="235" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A235" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B235" s="154" t="s">
         <v>1249</v>
       </c>
-      <c r="C235" s="182" t="s">
+      <c r="C235" s="153" t="s">
         <v>1313</v>
       </c>
-      <c r="D235" s="182" t="s">
+      <c r="D235" s="153" t="s">
         <v>1314</v>
       </c>
-      <c r="E235" s="182"/>
-      <c r="F235" s="182"/>
-      <c r="G235" s="183"/>
-      <c r="H235" s="183" t="s">
+      <c r="E235" s="153"/>
+      <c r="F235" s="153"/>
+      <c r="G235" s="154"/>
+      <c r="H235" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I235" s="183" t="s">
+      <c r="I235" s="154" t="s">
         <v>785</v>
       </c>
-      <c r="J235" s="183"/>
-      <c r="K235" s="183" t="s">
+      <c r="J235" s="154"/>
+      <c r="K235" s="154" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="236" spans="1:11" s="179" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A236" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B236" s="183" t="s">
+    <row r="236" spans="1:11" s="150" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A236" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B236" s="154" t="s">
         <v>1249</v>
       </c>
-      <c r="C236" s="182" t="s">
+      <c r="C236" s="153" t="s">
         <v>1315</v>
       </c>
-      <c r="D236" s="182" t="s">
+      <c r="D236" s="153" t="s">
         <v>1316</v>
       </c>
-      <c r="E236" s="182" t="s">
+      <c r="E236" s="153" t="s">
         <v>1271</v>
       </c>
-      <c r="F236" s="182"/>
-      <c r="G236" s="183"/>
-      <c r="H236" s="183" t="s">
+      <c r="F236" s="153"/>
+      <c r="G236" s="154"/>
+      <c r="H236" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I236" s="183" t="s">
+      <c r="I236" s="154" t="s">
         <v>1224</v>
       </c>
-      <c r="J236" s="183"/>
-      <c r="K236" s="183" t="s">
+      <c r="J236" s="154"/>
+      <c r="K236" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="237" spans="1:11" s="179" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A237" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B237" s="183" t="s">
+    <row r="237" spans="1:11" s="150" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A237" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B237" s="154" t="s">
         <v>1249</v>
       </c>
-      <c r="C237" s="182" t="s">
+      <c r="C237" s="153" t="s">
         <v>1317</v>
       </c>
-      <c r="D237" s="182" t="s">
+      <c r="D237" s="153" t="s">
         <v>1318</v>
       </c>
-      <c r="E237" s="182" t="s">
+      <c r="E237" s="153" t="s">
         <v>1271</v>
       </c>
-      <c r="F237" s="182"/>
-      <c r="G237" s="183" t="s">
+      <c r="F237" s="153"/>
+      <c r="G237" s="154" t="s">
         <v>1297</v>
       </c>
-      <c r="H237" s="183" t="s">
+      <c r="H237" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I237" s="183" t="s">
+      <c r="I237" s="154" t="s">
         <v>1224</v>
       </c>
-      <c r="J237" s="183"/>
-      <c r="K237" s="183"/>
-    </row>
-    <row r="238" spans="1:11" s="179" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A238" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B238" s="183" t="s">
+      <c r="J237" s="154"/>
+      <c r="K237" s="154"/>
+    </row>
+    <row r="238" spans="1:11" s="150" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A238" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B238" s="154" t="s">
         <v>1249</v>
       </c>
-      <c r="C238" s="182" t="s">
+      <c r="C238" s="153" t="s">
         <v>1319</v>
       </c>
-      <c r="D238" s="182" t="s">
+      <c r="D238" s="153" t="s">
         <v>1320</v>
       </c>
-      <c r="E238" s="182" t="s">
+      <c r="E238" s="153" t="s">
         <v>1271</v>
       </c>
-      <c r="F238" s="182"/>
-      <c r="G238" s="182"/>
-      <c r="H238" s="183" t="s">
+      <c r="F238" s="153"/>
+      <c r="G238" s="153"/>
+      <c r="H238" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I238" s="183" t="s">
+      <c r="I238" s="154" t="s">
         <v>1321</v>
       </c>
-      <c r="J238" s="183"/>
-      <c r="K238" s="183" t="s">
+      <c r="J238" s="154"/>
+      <c r="K238" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="239" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A239" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B239" s="183" t="s">
+    <row r="239" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A239" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B239" s="154" t="s">
         <v>1249</v>
       </c>
-      <c r="C239" s="182" t="s">
+      <c r="C239" s="153" t="s">
         <v>1322</v>
       </c>
-      <c r="D239" s="182" t="s">
+      <c r="D239" s="153" t="s">
         <v>1323</v>
       </c>
-      <c r="E239" s="182"/>
-      <c r="F239" s="182"/>
-      <c r="G239" s="186" t="s">
+      <c r="E239" s="153"/>
+      <c r="F239" s="153"/>
+      <c r="G239" s="157" t="s">
         <v>1324</v>
       </c>
-      <c r="H239" s="183" t="s">
+      <c r="H239" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I239" s="183" t="s">
+      <c r="I239" s="154" t="s">
         <v>1325</v>
       </c>
-      <c r="J239" s="183"/>
-      <c r="K239" s="183" t="s">
+      <c r="J239" s="154"/>
+      <c r="K239" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="240" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A240" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B240" s="183" t="s">
+    <row r="240" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A240" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B240" s="154" t="s">
         <v>1249</v>
       </c>
-      <c r="C240" s="182" t="s">
+      <c r="C240" s="153" t="s">
         <v>1326</v>
       </c>
-      <c r="D240" s="182" t="s">
+      <c r="D240" s="153" t="s">
         <v>1327</v>
       </c>
-      <c r="E240" s="182" t="s">
+      <c r="E240" s="153" t="s">
         <v>1328</v>
       </c>
-      <c r="F240" s="182"/>
-      <c r="G240" s="183"/>
-      <c r="H240" s="183" t="s">
+      <c r="F240" s="153"/>
+      <c r="G240" s="154"/>
+      <c r="H240" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I240" s="183" t="s">
+      <c r="I240" s="154" t="s">
         <v>1329</v>
       </c>
-      <c r="J240" s="183"/>
-      <c r="K240" s="183" t="s">
+      <c r="J240" s="154"/>
+      <c r="K240" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="241" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A241" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B241" s="183" t="s">
+    <row r="241" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A241" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B241" s="154" t="s">
         <v>1249</v>
       </c>
-      <c r="C241" s="182" t="s">
+      <c r="C241" s="153" t="s">
         <v>1330</v>
       </c>
-      <c r="D241" s="182" t="s">
+      <c r="D241" s="153" t="s">
         <v>1331</v>
       </c>
-      <c r="E241" s="182" t="s">
+      <c r="E241" s="153" t="s">
         <v>1328</v>
       </c>
-      <c r="F241" s="182"/>
-      <c r="G241" s="183"/>
-      <c r="H241" s="183" t="s">
+      <c r="F241" s="153"/>
+      <c r="G241" s="154"/>
+      <c r="H241" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I241" s="183" t="s">
+      <c r="I241" s="154" t="s">
         <v>1332</v>
       </c>
-      <c r="J241" s="183"/>
-      <c r="K241" s="183" t="s">
+      <c r="J241" s="154"/>
+      <c r="K241" s="154" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="242" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A242" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B242" s="183" t="s">
+    <row r="242" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A242" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B242" s="154" t="s">
         <v>1249</v>
       </c>
-      <c r="C242" s="182" t="s">
+      <c r="C242" s="153" t="s">
         <v>1333</v>
       </c>
-      <c r="D242" s="182" t="s">
+      <c r="D242" s="153" t="s">
         <v>1334</v>
       </c>
-      <c r="E242" s="182"/>
-      <c r="F242" s="182"/>
-      <c r="G242" s="183"/>
-      <c r="H242" s="183" t="s">
+      <c r="E242" s="153"/>
+      <c r="F242" s="153"/>
+      <c r="G242" s="154"/>
+      <c r="H242" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I242" s="183" t="s">
+      <c r="I242" s="154" t="s">
         <v>1335</v>
       </c>
-      <c r="J242" s="183"/>
-      <c r="K242" s="183" t="s">
+      <c r="J242" s="154"/>
+      <c r="K242" s="154" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="243" spans="1:11" s="179" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A243" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B243" s="183" t="s">
+    <row r="243" spans="1:11" s="150" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A243" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B243" s="154" t="s">
         <v>1249</v>
       </c>
-      <c r="C243" s="182" t="s">
+      <c r="C243" s="153" t="s">
         <v>1336</v>
       </c>
-      <c r="D243" s="182" t="s">
+      <c r="D243" s="153" t="s">
         <v>1337</v>
       </c>
-      <c r="E243" s="182" t="s">
+      <c r="E243" s="153" t="s">
         <v>1338</v>
       </c>
-      <c r="F243" s="182"/>
-      <c r="G243" s="183"/>
-      <c r="H243" s="183" t="s">
+      <c r="F243" s="153"/>
+      <c r="G243" s="154"/>
+      <c r="H243" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I243" s="183" t="s">
+      <c r="I243" s="154" t="s">
         <v>1339</v>
       </c>
-      <c r="J243" s="183"/>
-      <c r="K243" s="183" t="s">
+      <c r="J243" s="154"/>
+      <c r="K243" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="244" spans="1:11" s="179" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A244" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B244" s="183" t="s">
+    <row r="244" spans="1:11" s="150" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A244" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B244" s="154" t="s">
         <v>1249</v>
       </c>
-      <c r="C244" s="182" t="s">
+      <c r="C244" s="153" t="s">
         <v>1340</v>
       </c>
-      <c r="D244" s="182" t="s">
+      <c r="D244" s="153" t="s">
         <v>1341</v>
       </c>
-      <c r="E244" s="182" t="s">
+      <c r="E244" s="153" t="s">
         <v>1338</v>
       </c>
-      <c r="F244" s="182"/>
-      <c r="G244" s="183"/>
-      <c r="H244" s="183" t="s">
+      <c r="F244" s="153"/>
+      <c r="G244" s="154"/>
+      <c r="H244" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I244" s="183" t="s">
+      <c r="I244" s="154" t="s">
         <v>1342</v>
       </c>
-      <c r="J244" s="183"/>
-      <c r="K244" s="183" t="s">
+      <c r="J244" s="154"/>
+      <c r="K244" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="245" spans="1:11" s="179" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A245" s="187" t="s">
-        <v>200</v>
-      </c>
-      <c r="B245" s="187" t="s">
+    <row r="245" spans="1:11" s="150" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A245" s="158" t="s">
+        <v>200</v>
+      </c>
+      <c r="B245" s="158" t="s">
         <v>1249</v>
       </c>
-      <c r="C245" s="186" t="s">
+      <c r="C245" s="157" t="s">
         <v>1343</v>
       </c>
-      <c r="D245" s="186" t="s">
+      <c r="D245" s="157" t="s">
         <v>1344</v>
       </c>
-      <c r="E245" s="186" t="s">
+      <c r="E245" s="157" t="s">
         <v>1338</v>
       </c>
-      <c r="F245" s="186"/>
-      <c r="G245" s="186" t="s">
+      <c r="F245" s="157"/>
+      <c r="G245" s="157" t="s">
         <v>1345</v>
       </c>
-      <c r="H245" s="187" t="s">
+      <c r="H245" s="158" t="s">
         <v>1293</v>
       </c>
-      <c r="I245" s="187" t="s">
+      <c r="I245" s="158" t="s">
         <v>1346</v>
       </c>
-      <c r="J245" s="187"/>
-      <c r="K245" s="187" t="s">
+      <c r="J245" s="158"/>
+      <c r="K245" s="158" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="246" spans="1:11" s="179" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A246" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B246" s="183" t="s">
+    <row r="246" spans="1:11" s="150" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A246" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B246" s="154" t="s">
         <v>1249</v>
       </c>
-      <c r="C246" s="182" t="s">
+      <c r="C246" s="153" t="s">
         <v>1347</v>
       </c>
-      <c r="D246" s="182" t="s">
+      <c r="D246" s="153" t="s">
         <v>1348</v>
       </c>
-      <c r="E246" s="182" t="s">
+      <c r="E246" s="153" t="s">
         <v>1338</v>
       </c>
-      <c r="F246" s="182"/>
-      <c r="G246" s="183"/>
-      <c r="H246" s="183" t="s">
+      <c r="F246" s="153"/>
+      <c r="G246" s="154"/>
+      <c r="H246" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I246" s="183" t="s">
+      <c r="I246" s="154" t="s">
         <v>1349</v>
       </c>
-      <c r="J246" s="183"/>
-      <c r="K246" s="183" t="s">
+      <c r="J246" s="154"/>
+      <c r="K246" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="247" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A247" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B247" s="183" t="s">
+    <row r="247" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A247" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B247" s="154" t="s">
         <v>1249</v>
       </c>
-      <c r="C247" s="182" t="s">
+      <c r="C247" s="153" t="s">
         <v>1279</v>
       </c>
-      <c r="D247" s="182" t="s">
+      <c r="D247" s="153" t="s">
         <v>1350</v>
       </c>
-      <c r="E247" s="182"/>
-      <c r="F247" s="182"/>
-      <c r="G247" s="183"/>
-      <c r="H247" s="183" t="s">
+      <c r="E247" s="153"/>
+      <c r="F247" s="153"/>
+      <c r="G247" s="154"/>
+      <c r="H247" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I247" s="183" t="s">
+      <c r="I247" s="154" t="s">
         <v>1351</v>
       </c>
-      <c r="J247" s="183"/>
-      <c r="K247" s="183" t="s">
+      <c r="J247" s="154"/>
+      <c r="K247" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="248" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A248" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B248" s="183" t="s">
+    <row r="248" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A248" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B248" s="154" t="s">
         <v>1249</v>
       </c>
-      <c r="C248" s="182" t="s">
+      <c r="C248" s="153" t="s">
         <v>1352</v>
       </c>
-      <c r="D248" s="182" t="s">
+      <c r="D248" s="153" t="s">
         <v>1353</v>
       </c>
-      <c r="E248" s="182"/>
-      <c r="F248" s="182"/>
-      <c r="G248" s="183"/>
-      <c r="H248" s="183" t="s">
+      <c r="E248" s="153"/>
+      <c r="F248" s="153"/>
+      <c r="G248" s="154"/>
+      <c r="H248" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I248" s="183" t="s">
+      <c r="I248" s="154" t="s">
         <v>1354</v>
       </c>
-      <c r="J248" s="183"/>
-      <c r="K248" s="183" t="s">
+      <c r="J248" s="154"/>
+      <c r="K248" s="154" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="249" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A249" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B249" s="183" t="s">
+    <row r="249" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A249" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B249" s="154" t="s">
         <v>1249</v>
       </c>
-      <c r="C249" s="182" t="s">
+      <c r="C249" s="153" t="s">
         <v>1228</v>
       </c>
-      <c r="D249" s="182" t="s">
+      <c r="D249" s="153" t="s">
         <v>1355</v>
       </c>
-      <c r="E249" s="182" t="s">
+      <c r="E249" s="153" t="s">
         <v>1230</v>
       </c>
-      <c r="F249" s="182"/>
-      <c r="G249" s="183"/>
-      <c r="H249" s="183" t="s">
+      <c r="F249" s="153"/>
+      <c r="G249" s="154"/>
+      <c r="H249" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I249" s="183" t="s">
+      <c r="I249" s="154" t="s">
         <v>1299</v>
       </c>
-      <c r="J249" s="183"/>
-      <c r="K249" s="183" t="s">
+      <c r="J249" s="154"/>
+      <c r="K249" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="250" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A250" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B250" s="183" t="s">
+    <row r="250" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A250" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B250" s="154" t="s">
         <v>1249</v>
       </c>
-      <c r="C250" s="182" t="s">
+      <c r="C250" s="153" t="s">
         <v>1250</v>
       </c>
-      <c r="D250" s="182" t="s">
+      <c r="D250" s="153" t="s">
         <v>1251</v>
       </c>
-      <c r="E250" s="182" t="s">
+      <c r="E250" s="153" t="s">
         <v>623</v>
       </c>
-      <c r="F250" s="182"/>
-      <c r="G250" s="182"/>
-      <c r="H250" s="183" t="s">
+      <c r="F250" s="153"/>
+      <c r="G250" s="153"/>
+      <c r="H250" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I250" s="183" t="s">
+      <c r="I250" s="154" t="s">
         <v>1301</v>
       </c>
-      <c r="J250" s="183"/>
-      <c r="K250" s="183" t="s">
+      <c r="J250" s="154"/>
+      <c r="K250" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="251" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A251" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B251" s="183" t="s">
+    <row r="251" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A251" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B251" s="154" t="s">
         <v>1249</v>
       </c>
-      <c r="C251" s="182" t="s">
+      <c r="C251" s="153" t="s">
         <v>1247</v>
       </c>
-      <c r="D251" s="182" t="s">
+      <c r="D251" s="153" t="s">
         <v>1247</v>
       </c>
-      <c r="E251" s="183"/>
-      <c r="F251" s="183"/>
-      <c r="G251" s="183"/>
-      <c r="H251" s="183" t="s">
+      <c r="E251" s="154"/>
+      <c r="F251" s="154"/>
+      <c r="G251" s="154"/>
+      <c r="H251" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I251" s="183" t="s">
+      <c r="I251" s="154" t="s">
         <v>1302</v>
       </c>
-      <c r="J251" s="183"/>
-      <c r="K251" s="183"/>
-    </row>
-    <row r="252" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A252" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B252" s="183" t="s">
+      <c r="J251" s="154"/>
+      <c r="K251" s="154"/>
+    </row>
+    <row r="252" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A252" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B252" s="154" t="s">
         <v>1249</v>
       </c>
-      <c r="C252" s="182" t="s">
+      <c r="C252" s="153" t="s">
         <v>1245</v>
       </c>
-      <c r="D252" s="182" t="s">
+      <c r="D252" s="153" t="s">
         <v>1245</v>
       </c>
-      <c r="E252" s="183"/>
-      <c r="F252" s="183"/>
-      <c r="G252" s="183"/>
-      <c r="H252" s="183" t="s">
+      <c r="E252" s="154"/>
+      <c r="F252" s="154"/>
+      <c r="G252" s="154"/>
+      <c r="H252" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I252" s="183" t="s">
+      <c r="I252" s="154" t="s">
         <v>1246</v>
       </c>
-      <c r="J252" s="183"/>
-      <c r="K252" s="183"/>
-    </row>
-    <row r="253" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A253" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B253" s="183" t="s">
+      <c r="J252" s="154"/>
+      <c r="K252" s="154"/>
+    </row>
+    <row r="253" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A253" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B253" s="154" t="s">
         <v>1249</v>
       </c>
-      <c r="C253" s="182" t="s">
+      <c r="C253" s="153" t="s">
         <v>1237</v>
       </c>
-      <c r="D253" s="182" t="s">
+      <c r="D253" s="153" t="s">
         <v>1237</v>
       </c>
-      <c r="E253" s="183"/>
-      <c r="F253" s="183"/>
-      <c r="G253" s="183"/>
-      <c r="H253" s="183" t="s">
+      <c r="E253" s="154"/>
+      <c r="F253" s="154"/>
+      <c r="G253" s="154"/>
+      <c r="H253" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I253" s="183" t="s">
+      <c r="I253" s="154" t="s">
         <v>1302</v>
       </c>
-      <c r="J253" s="183"/>
-      <c r="K253" s="183"/>
-    </row>
-    <row r="254" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A254" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B254" s="183" t="s">
+      <c r="J253" s="154"/>
+      <c r="K253" s="154"/>
+    </row>
+    <row r="254" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A254" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B254" s="154" t="s">
         <v>1249</v>
       </c>
-      <c r="C254" s="182" t="s">
+      <c r="C254" s="153" t="s">
         <v>1303</v>
       </c>
-      <c r="D254" s="182" t="s">
+      <c r="D254" s="153" t="s">
         <v>1303</v>
       </c>
-      <c r="E254" s="183"/>
-      <c r="F254" s="183"/>
-      <c r="G254" s="183"/>
-      <c r="H254" s="183" t="s">
+      <c r="E254" s="154"/>
+      <c r="F254" s="154"/>
+      <c r="G254" s="154"/>
+      <c r="H254" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I254" s="183" t="s">
+      <c r="I254" s="154" t="s">
         <v>1242</v>
       </c>
-      <c r="J254" s="183"/>
-      <c r="K254" s="183"/>
-    </row>
-    <row r="255" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A255" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B255" s="183" t="s">
+      <c r="J254" s="154"/>
+      <c r="K254" s="154"/>
+    </row>
+    <row r="255" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A255" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B255" s="154" t="s">
         <v>1249</v>
       </c>
-      <c r="C255" s="182" t="s">
+      <c r="C255" s="153" t="s">
         <v>1239</v>
       </c>
-      <c r="D255" s="182" t="s">
+      <c r="D255" s="153" t="s">
         <v>1239</v>
       </c>
-      <c r="E255" s="183"/>
-      <c r="F255" s="183"/>
-      <c r="G255" s="183"/>
-      <c r="H255" s="183" t="s">
+      <c r="E255" s="154"/>
+      <c r="F255" s="154"/>
+      <c r="G255" s="154"/>
+      <c r="H255" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I255" s="183" t="s">
+      <c r="I255" s="154" t="s">
         <v>903</v>
       </c>
-      <c r="J255" s="183"/>
-      <c r="K255" s="183"/>
-    </row>
-    <row r="256" spans="1:11" s="179" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A256" s="188" t="s">
+      <c r="J255" s="154"/>
+      <c r="K255" s="154"/>
+    </row>
+    <row r="256" spans="1:11" s="150" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A256" s="159" t="s">
         <v>195</v>
       </c>
-      <c r="B256" s="188" t="s">
+      <c r="B256" s="159" t="s">
         <v>1356</v>
       </c>
-      <c r="C256" s="188"/>
-      <c r="D256" s="181" t="s">
+      <c r="C256" s="159"/>
+      <c r="D256" s="152" t="s">
         <v>1357</v>
       </c>
-      <c r="E256" s="181"/>
-      <c r="F256" s="181"/>
-      <c r="G256" s="181"/>
-      <c r="H256" s="181"/>
-      <c r="I256" s="181"/>
-      <c r="J256" s="181"/>
-      <c r="K256" s="181"/>
-    </row>
-    <row r="257" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B257" s="182" t="s">
+      <c r="E256" s="152"/>
+      <c r="F256" s="152"/>
+      <c r="G256" s="152"/>
+      <c r="H256" s="152"/>
+      <c r="I256" s="152"/>
+      <c r="J256" s="152"/>
+      <c r="K256" s="152"/>
+    </row>
+    <row r="257" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B257" s="153" t="s">
         <v>1356</v>
       </c>
-      <c r="C257" s="182" t="s">
+      <c r="C257" s="153" t="s">
         <v>899</v>
       </c>
-      <c r="D257" s="182" t="s">
+      <c r="D257" s="153" t="s">
         <v>1358</v>
       </c>
-      <c r="E257" s="182"/>
-      <c r="F257" s="182"/>
-      <c r="G257" s="183"/>
-      <c r="H257" s="183" t="s">
+      <c r="E257" s="153"/>
+      <c r="F257" s="153"/>
+      <c r="G257" s="154"/>
+      <c r="H257" s="154" t="s">
         <v>1359</v>
       </c>
-      <c r="I257" s="183" t="s">
+      <c r="I257" s="154" t="s">
         <v>452</v>
       </c>
-      <c r="J257" s="183"/>
-      <c r="K257" s="183" t="s">
+      <c r="J257" s="154"/>
+      <c r="K257" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="258" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A258" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B258" s="182" t="s">
+    <row r="258" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A258" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B258" s="153" t="s">
         <v>1356</v>
       </c>
-      <c r="C258" s="182" t="s">
+      <c r="C258" s="153" t="s">
         <v>1360</v>
       </c>
-      <c r="D258" s="182" t="s">
+      <c r="D258" s="153" t="s">
         <v>1361</v>
       </c>
-      <c r="E258" s="182"/>
-      <c r="F258" s="182"/>
-      <c r="G258" s="183"/>
-      <c r="H258" s="183" t="s">
+      <c r="E258" s="153"/>
+      <c r="F258" s="153"/>
+      <c r="G258" s="154"/>
+      <c r="H258" s="154" t="s">
         <v>1359</v>
       </c>
-      <c r="I258" s="183" t="s">
+      <c r="I258" s="154" t="s">
         <v>288</v>
       </c>
-      <c r="J258" s="183"/>
-      <c r="K258" s="183" t="s">
+      <c r="J258" s="154"/>
+      <c r="K258" s="154" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="259" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A259" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B259" s="182" t="s">
+    <row r="259" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A259" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B259" s="153" t="s">
         <v>1356</v>
       </c>
-      <c r="C259" s="182" t="s">
+      <c r="C259" s="153" t="s">
         <v>1362</v>
       </c>
-      <c r="D259" s="182" t="s">
+      <c r="D259" s="153" t="s">
         <v>1363</v>
       </c>
-      <c r="E259" s="182"/>
-      <c r="F259" s="182"/>
-      <c r="G259" s="183" t="s">
+      <c r="E259" s="153"/>
+      <c r="F259" s="153"/>
+      <c r="G259" s="154" t="s">
         <v>1364</v>
       </c>
-      <c r="H259" s="183" t="s">
+      <c r="H259" s="154" t="s">
         <v>1359</v>
       </c>
-      <c r="I259" s="183" t="s">
+      <c r="I259" s="154" t="s">
         <v>1186</v>
       </c>
-      <c r="J259" s="183"/>
-      <c r="K259" s="183"/>
-    </row>
-    <row r="260" spans="1:11" s="179" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A260" s="187" t="s">
-        <v>200</v>
-      </c>
-      <c r="B260" s="186" t="s">
+      <c r="J259" s="154"/>
+      <c r="K259" s="154"/>
+    </row>
+    <row r="260" spans="1:11" s="150" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A260" s="158" t="s">
+        <v>200</v>
+      </c>
+      <c r="B260" s="157" t="s">
         <v>1356</v>
       </c>
-      <c r="C260" s="186" t="s">
+      <c r="C260" s="157" t="s">
         <v>1365</v>
       </c>
-      <c r="D260" s="186" t="s">
+      <c r="D260" s="157" t="s">
         <v>1366</v>
       </c>
-      <c r="E260" s="186"/>
-      <c r="F260" s="186"/>
-      <c r="G260" s="186" t="s">
+      <c r="E260" s="157"/>
+      <c r="F260" s="157"/>
+      <c r="G260" s="157" t="s">
         <v>1367</v>
       </c>
-      <c r="H260" s="187" t="s">
+      <c r="H260" s="158" t="s">
         <v>1359</v>
       </c>
-      <c r="I260" s="187" t="s">
+      <c r="I260" s="158" t="s">
         <v>1368</v>
       </c>
-      <c r="J260" s="187"/>
-      <c r="K260" s="187"/>
-    </row>
-    <row r="261" spans="1:11" s="179" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A261" s="187" t="s">
-        <v>200</v>
-      </c>
-      <c r="B261" s="186" t="s">
+      <c r="J260" s="158"/>
+      <c r="K260" s="158"/>
+    </row>
+    <row r="261" spans="1:11" s="150" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A261" s="158" t="s">
+        <v>200</v>
+      </c>
+      <c r="B261" s="157" t="s">
         <v>1356</v>
       </c>
-      <c r="C261" s="186" t="s">
+      <c r="C261" s="157" t="s">
         <v>1369</v>
       </c>
-      <c r="D261" s="186" t="s">
+      <c r="D261" s="157" t="s">
         <v>1370</v>
       </c>
-      <c r="E261" s="186"/>
-      <c r="F261" s="186"/>
-      <c r="G261" s="186" t="s">
+      <c r="E261" s="157"/>
+      <c r="F261" s="157"/>
+      <c r="G261" s="157" t="s">
         <v>1367</v>
       </c>
-      <c r="H261" s="187" t="s">
+      <c r="H261" s="158" t="s">
         <v>1359</v>
       </c>
-      <c r="I261" s="187" t="s">
+      <c r="I261" s="158" t="s">
         <v>1368</v>
       </c>
-      <c r="J261" s="187"/>
-      <c r="K261" s="187"/>
-    </row>
-    <row r="262" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A262" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B262" s="182" t="s">
+      <c r="J261" s="158"/>
+      <c r="K261" s="158"/>
+    </row>
+    <row r="262" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A262" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B262" s="153" t="s">
         <v>1356</v>
       </c>
-      <c r="C262" s="182" t="s">
+      <c r="C262" s="153" t="s">
         <v>1371</v>
       </c>
-      <c r="D262" s="182" t="s">
+      <c r="D262" s="153" t="s">
         <v>1372</v>
       </c>
-      <c r="E262" s="182"/>
-      <c r="F262" s="182"/>
-      <c r="G262" s="183" t="s">
+      <c r="E262" s="153"/>
+      <c r="F262" s="153"/>
+      <c r="G262" s="154" t="s">
         <v>1373</v>
       </c>
-      <c r="H262" s="183" t="s">
+      <c r="H262" s="154" t="s">
         <v>1359</v>
       </c>
-      <c r="I262" s="183" t="s">
+      <c r="I262" s="154" t="s">
         <v>1224</v>
       </c>
-      <c r="J262" s="183"/>
-      <c r="K262" s="183"/>
-    </row>
-    <row r="263" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A263" s="187" t="s">
-        <v>200</v>
-      </c>
-      <c r="B263" s="186" t="s">
+      <c r="J262" s="154"/>
+      <c r="K262" s="154"/>
+    </row>
+    <row r="263" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A263" s="158" t="s">
+        <v>200</v>
+      </c>
+      <c r="B263" s="157" t="s">
         <v>1356</v>
       </c>
-      <c r="C263" s="186" t="s">
+      <c r="C263" s="157" t="s">
         <v>1374</v>
       </c>
-      <c r="D263" s="186" t="s">
+      <c r="D263" s="157" t="s">
         <v>1375</v>
       </c>
-      <c r="E263" s="186"/>
-      <c r="F263" s="186"/>
-      <c r="G263" s="186" t="s">
+      <c r="E263" s="157"/>
+      <c r="F263" s="157"/>
+      <c r="G263" s="157" t="s">
         <v>1367</v>
       </c>
-      <c r="H263" s="187" t="s">
+      <c r="H263" s="158" t="s">
         <v>1359</v>
       </c>
-      <c r="I263" s="187" t="s">
+      <c r="I263" s="158" t="s">
         <v>1376</v>
       </c>
-      <c r="J263" s="187"/>
-      <c r="K263" s="187"/>
-    </row>
-    <row r="264" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A264" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B264" s="182" t="s">
+      <c r="J263" s="158"/>
+      <c r="K263" s="158"/>
+    </row>
+    <row r="264" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A264" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B264" s="153" t="s">
         <v>1356</v>
       </c>
-      <c r="C264" s="182" t="s">
+      <c r="C264" s="153" t="s">
         <v>1377</v>
       </c>
-      <c r="D264" s="182" t="s">
+      <c r="D264" s="153" t="s">
         <v>1377</v>
       </c>
-      <c r="E264" s="183"/>
-      <c r="F264" s="183"/>
-      <c r="G264" s="183"/>
-      <c r="H264" s="183" t="s">
+      <c r="E264" s="154"/>
+      <c r="F264" s="154"/>
+      <c r="G264" s="154"/>
+      <c r="H264" s="154" t="s">
         <v>1359</v>
       </c>
-      <c r="I264" s="183" t="s">
+      <c r="I264" s="154" t="s">
         <v>1378</v>
       </c>
-      <c r="J264" s="183"/>
-      <c r="K264" s="183"/>
-    </row>
-    <row r="265" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A265" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B265" s="182" t="s">
+      <c r="J264" s="154"/>
+      <c r="K264" s="154"/>
+    </row>
+    <row r="265" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A265" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B265" s="153" t="s">
         <v>1356</v>
       </c>
-      <c r="C265" s="182" t="s">
+      <c r="C265" s="153" t="s">
         <v>1303</v>
       </c>
-      <c r="D265" s="182" t="s">
+      <c r="D265" s="153" t="s">
         <v>1303</v>
       </c>
-      <c r="E265" s="183"/>
-      <c r="F265" s="183"/>
-      <c r="G265" s="183"/>
-      <c r="H265" s="183" t="s">
+      <c r="E265" s="154"/>
+      <c r="F265" s="154"/>
+      <c r="G265" s="154"/>
+      <c r="H265" s="154" t="s">
         <v>1359</v>
       </c>
-      <c r="I265" s="183" t="s">
+      <c r="I265" s="154" t="s">
         <v>1242</v>
       </c>
-      <c r="J265" s="183"/>
-      <c r="K265" s="183"/>
-    </row>
-    <row r="266" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A266" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B266" s="182" t="s">
+      <c r="J265" s="154"/>
+      <c r="K265" s="154"/>
+    </row>
+    <row r="266" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A266" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B266" s="153" t="s">
         <v>1356</v>
       </c>
-      <c r="C266" s="182" t="s">
+      <c r="C266" s="153" t="s">
         <v>1239</v>
       </c>
-      <c r="D266" s="182" t="s">
+      <c r="D266" s="153" t="s">
         <v>1239</v>
       </c>
-      <c r="E266" s="182"/>
-      <c r="F266" s="182"/>
-      <c r="G266" s="183"/>
-      <c r="H266" s="183" t="s">
+      <c r="E266" s="153"/>
+      <c r="F266" s="153"/>
+      <c r="G266" s="154"/>
+      <c r="H266" s="154" t="s">
         <v>1359</v>
       </c>
-      <c r="I266" s="183" t="s">
+      <c r="I266" s="154" t="s">
         <v>903</v>
       </c>
-      <c r="J266" s="183"/>
-      <c r="K266" s="183"/>
-    </row>
-    <row r="267" spans="1:11" s="179" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A267" s="180" t="s">
+      <c r="J266" s="154"/>
+      <c r="K266" s="154"/>
+    </row>
+    <row r="267" spans="1:11" s="150" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A267" s="151" t="s">
         <v>195</v>
       </c>
-      <c r="B267" s="180" t="s">
+      <c r="B267" s="151" t="s">
         <v>1379</v>
       </c>
-      <c r="C267" s="181"/>
-      <c r="D267" s="181" t="s">
+      <c r="C267" s="152"/>
+      <c r="D267" s="152" t="s">
         <v>1380</v>
       </c>
-      <c r="E267" s="181"/>
-      <c r="F267" s="181"/>
-      <c r="G267" s="181" t="s">
+      <c r="E267" s="152"/>
+      <c r="F267" s="152"/>
+      <c r="G267" s="152" t="s">
         <v>1381</v>
       </c>
-      <c r="H267" s="181"/>
-      <c r="I267" s="181"/>
-      <c r="J267" s="181"/>
-      <c r="K267" s="181"/>
-    </row>
-    <row r="268" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A268" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B268" s="182" t="s">
+      <c r="H267" s="152"/>
+      <c r="I267" s="152"/>
+      <c r="J267" s="152"/>
+      <c r="K267" s="152"/>
+    </row>
+    <row r="268" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A268" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B268" s="153" t="s">
         <v>1379</v>
       </c>
-      <c r="C268" s="182" t="s">
+      <c r="C268" s="153" t="s">
         <v>1382</v>
       </c>
-      <c r="D268" s="182" t="s">
+      <c r="D268" s="153" t="s">
         <v>1383</v>
       </c>
-      <c r="E268" s="182" t="s">
+      <c r="E268" s="153" t="s">
         <v>1252</v>
       </c>
-      <c r="F268" s="182"/>
-      <c r="G268" s="182"/>
-      <c r="H268" s="183" t="s">
+      <c r="F268" s="153"/>
+      <c r="G268" s="153"/>
+      <c r="H268" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I268" s="183" t="s">
+      <c r="I268" s="154" t="s">
         <v>1224</v>
       </c>
-      <c r="J268" s="183"/>
-      <c r="K268" s="183"/>
-    </row>
-    <row r="269" spans="1:11" s="179" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A269" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B269" s="182" t="s">
+      <c r="J268" s="154"/>
+      <c r="K268" s="154"/>
+    </row>
+    <row r="269" spans="1:11" s="150" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A269" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B269" s="153" t="s">
         <v>1379</v>
       </c>
-      <c r="C269" s="182" t="s">
+      <c r="C269" s="153" t="s">
         <v>1384</v>
       </c>
-      <c r="D269" s="182" t="s">
+      <c r="D269" s="153" t="s">
         <v>1385</v>
       </c>
-      <c r="E269" s="182" t="s">
+      <c r="E269" s="153" t="s">
         <v>1252</v>
       </c>
-      <c r="F269" s="182"/>
-      <c r="G269" s="182" t="s">
+      <c r="F269" s="153"/>
+      <c r="G269" s="153" t="s">
         <v>1386</v>
       </c>
-      <c r="H269" s="183" t="s">
+      <c r="H269" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I269" s="183" t="s">
+      <c r="I269" s="154" t="s">
         <v>1387</v>
       </c>
-      <c r="J269" s="183"/>
-      <c r="K269" s="183"/>
-    </row>
-    <row r="270" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A270" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B270" s="182" t="s">
+      <c r="J269" s="154"/>
+      <c r="K269" s="154"/>
+    </row>
+    <row r="270" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A270" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B270" s="153" t="s">
         <v>1379</v>
       </c>
-      <c r="C270" s="182" t="s">
+      <c r="C270" s="153" t="s">
         <v>1388</v>
       </c>
-      <c r="D270" s="182" t="s">
+      <c r="D270" s="153" t="s">
         <v>1389</v>
       </c>
-      <c r="E270" s="182" t="s">
+      <c r="E270" s="153" t="s">
         <v>1252</v>
       </c>
-      <c r="F270" s="182"/>
-      <c r="G270" s="183"/>
-      <c r="H270" s="183" t="s">
+      <c r="F270" s="153"/>
+      <c r="G270" s="154"/>
+      <c r="H270" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I270" s="183" t="s">
+      <c r="I270" s="154" t="s">
         <v>1390</v>
       </c>
-      <c r="J270" s="183"/>
-      <c r="K270" s="183"/>
-    </row>
-    <row r="271" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A271" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B271" s="182" t="s">
+      <c r="J270" s="154"/>
+      <c r="K270" s="154"/>
+    </row>
+    <row r="271" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A271" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B271" s="153" t="s">
         <v>1379</v>
       </c>
-      <c r="C271" s="182" t="s">
+      <c r="C271" s="153" t="s">
         <v>1266</v>
       </c>
-      <c r="D271" s="182" t="s">
+      <c r="D271" s="153" t="s">
         <v>1391</v>
       </c>
-      <c r="E271" s="182" t="s">
+      <c r="E271" s="153" t="s">
         <v>1252</v>
       </c>
-      <c r="F271" s="182"/>
-      <c r="G271" s="183"/>
-      <c r="H271" s="183" t="s">
+      <c r="F271" s="153"/>
+      <c r="G271" s="154"/>
+      <c r="H271" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I271" s="183" t="s">
+      <c r="I271" s="154" t="s">
         <v>785</v>
       </c>
-      <c r="J271" s="183"/>
-      <c r="K271" s="183"/>
-    </row>
-    <row r="272" spans="1:11" s="179" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A272" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B272" s="182" t="s">
+      <c r="J271" s="154"/>
+      <c r="K271" s="154"/>
+    </row>
+    <row r="272" spans="1:11" s="150" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A272" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B272" s="153" t="s">
         <v>1379</v>
       </c>
-      <c r="C272" s="182" t="s">
+      <c r="C272" s="153" t="s">
         <v>1392</v>
       </c>
-      <c r="D272" s="182" t="s">
+      <c r="D272" s="153" t="s">
         <v>1393</v>
       </c>
-      <c r="E272" s="182" t="s">
+      <c r="E272" s="153" t="s">
         <v>1252</v>
       </c>
-      <c r="F272" s="182"/>
-      <c r="G272" s="183"/>
-      <c r="H272" s="183" t="s">
+      <c r="F272" s="153"/>
+      <c r="G272" s="154"/>
+      <c r="H272" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I272" s="183" t="s">
+      <c r="I272" s="154" t="s">
         <v>781</v>
       </c>
-      <c r="J272" s="183"/>
-      <c r="K272" s="183"/>
-    </row>
-    <row r="273" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A273" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B273" s="182" t="s">
+      <c r="J272" s="154"/>
+      <c r="K272" s="154"/>
+    </row>
+    <row r="273" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A273" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B273" s="153" t="s">
         <v>1379</v>
       </c>
-      <c r="C273" s="182" t="s">
+      <c r="C273" s="153" t="s">
         <v>1394</v>
       </c>
-      <c r="D273" s="182" t="s">
+      <c r="D273" s="153" t="s">
         <v>1394</v>
       </c>
-      <c r="E273" s="183"/>
-      <c r="F273" s="183"/>
-      <c r="G273" s="183"/>
-      <c r="H273" s="183" t="s">
+      <c r="E273" s="154"/>
+      <c r="F273" s="154"/>
+      <c r="G273" s="154"/>
+      <c r="H273" s="154" t="s">
         <v>1293</v>
       </c>
-      <c r="I273" s="183" t="s">
+      <c r="I273" s="154" t="s">
         <v>1242</v>
       </c>
-      <c r="J273" s="183"/>
-      <c r="K273" s="183"/>
-    </row>
-    <row r="274" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A274" s="180" t="s">
+      <c r="J273" s="154"/>
+      <c r="K273" s="154"/>
+    </row>
+    <row r="274" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A274" s="151" t="s">
         <v>195</v>
       </c>
-      <c r="B274" s="181" t="s">
+      <c r="B274" s="152" t="s">
         <v>1395</v>
       </c>
-      <c r="C274" s="181"/>
-      <c r="D274" s="181" t="s">
+      <c r="C274" s="152"/>
+      <c r="D274" s="152" t="s">
         <v>1396</v>
       </c>
-      <c r="E274" s="181"/>
-      <c r="F274" s="181"/>
-      <c r="G274" s="181"/>
-      <c r="H274" s="181"/>
-      <c r="I274" s="181"/>
-      <c r="J274" s="181"/>
-      <c r="K274" s="181"/>
-    </row>
-    <row r="275" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A275" s="183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B275" s="182" t="s">
+      <c r="E274" s="152"/>
+      <c r="F274" s="152"/>
+      <c r="G274" s="152"/>
+      <c r="H274" s="152"/>
+      <c r="I274" s="152"/>
+      <c r="J274" s="152"/>
+      <c r="K274" s="152"/>
+    </row>
+    <row r="275" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A275" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B275" s="153" t="s">
         <v>1395</v>
       </c>
-      <c r="C275" s="183" t="s">
+      <c r="C275" s="154" t="s">
         <v>537</v>
       </c>
-      <c r="D275" s="182" t="s">
+      <c r="D275" s="153" t="s">
         <v>1397</v>
       </c>
-      <c r="E275" s="183">
+      <c r="E275" s="154">
         <v>3.29</v>
       </c>
-      <c r="F275" s="183"/>
-      <c r="G275" s="183"/>
-      <c r="H275" s="183" t="s">
+      <c r="F275" s="154"/>
+      <c r="G275" s="154"/>
+      <c r="H275" s="154" t="s">
         <v>1217</v>
       </c>
-      <c r="I275" s="183" t="s">
+      <c r="I275" s="154" t="s">
         <v>1253</v>
       </c>
-      <c r="J275" s="183"/>
-      <c r="K275" s="183"/>
-    </row>
-    <row r="276" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A276" s="180" t="s">
+      <c r="J275" s="154"/>
+      <c r="K275" s="154"/>
+    </row>
+    <row r="276" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A276" s="151" t="s">
         <v>195</v>
       </c>
-      <c r="B276" s="181" t="s">
+      <c r="B276" s="152" t="s">
         <v>1398</v>
       </c>
-      <c r="C276" s="181"/>
-      <c r="D276" s="181" t="s">
+      <c r="C276" s="152"/>
+      <c r="D276" s="152" t="s">
         <v>1399</v>
       </c>
-      <c r="E276" s="181"/>
-      <c r="F276" s="181"/>
-      <c r="G276" s="181"/>
-      <c r="H276" s="181"/>
-      <c r="I276" s="181"/>
-      <c r="J276" s="181"/>
-      <c r="K276" s="181"/>
-    </row>
-    <row r="277" spans="1:11" s="179" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A277" s="182" t="s">
-        <v>200</v>
-      </c>
-      <c r="B277" s="182" t="s">
+      <c r="E276" s="152"/>
+      <c r="F276" s="152"/>
+      <c r="G276" s="152"/>
+      <c r="H276" s="152"/>
+      <c r="I276" s="152"/>
+      <c r="J276" s="152"/>
+      <c r="K276" s="152"/>
+    </row>
+    <row r="277" spans="1:11" s="150" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A277" s="153" t="s">
+        <v>200</v>
+      </c>
+      <c r="B277" s="153" t="s">
         <v>1398</v>
       </c>
-      <c r="C277" s="182" t="s">
+      <c r="C277" s="153" t="s">
         <v>537</v>
       </c>
-      <c r="D277" s="182" t="s">
+      <c r="D277" s="153" t="s">
         <v>1400</v>
       </c>
-      <c r="E277" s="182">
+      <c r="E277" s="153">
         <v>3.29</v>
       </c>
-      <c r="F277" s="182"/>
-      <c r="G277" s="182"/>
-      <c r="H277" s="182"/>
-      <c r="I277" s="182"/>
-      <c r="J277" s="182"/>
-      <c r="K277" s="182"/>
+      <c r="F277" s="153"/>
+      <c r="G277" s="153"/>
+      <c r="H277" s="153"/>
+      <c r="I277" s="153"/>
+      <c r="J277" s="153"/>
+      <c r="K277" s="153"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:J66" xr:uid="{74FD2881-F666-44D9-993B-3E3CA96DC841}"/>
   <mergeCells count="26">
-    <mergeCell ref="J93:J97"/>
-    <mergeCell ref="K93:K97"/>
-    <mergeCell ref="F40:F44"/>
-    <mergeCell ref="G40:G44"/>
-    <mergeCell ref="H40:H44"/>
-    <mergeCell ref="I40:I44"/>
-    <mergeCell ref="I93:I97"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="F86:F87"/>
     <mergeCell ref="D72:D74"/>
     <mergeCell ref="E72:E74"/>
     <mergeCell ref="F72:F74"/>
@@ -15532,12 +15540,18 @@
     <mergeCell ref="E75:E78"/>
     <mergeCell ref="F75:F78"/>
     <mergeCell ref="G75:G78"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="J93:J97"/>
+    <mergeCell ref="K93:K97"/>
+    <mergeCell ref="F40:F44"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="H40:H44"/>
+    <mergeCell ref="I40:I44"/>
+    <mergeCell ref="I93:I97"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -15575,27 +15589,27 @@
       <c r="A2" s="60" t="s">
         <v>436</v>
       </c>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="166" t="s">
         <v>518</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="188" t="s">
         <v>516</v>
       </c>
-      <c r="B4" s="178"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
+      <c r="B4" s="188"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="178" t="s">
+      <c r="A5" s="188" t="s">
         <v>517</v>
       </c>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
+      <c r="B5" s="188"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -15613,9 +15627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8997823D-8709-4B16-A688-BDA7107E39D8}">
   <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15821,11 +15833,11 @@
       <c r="A2" s="60" t="s">
         <v>436</v>
       </c>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="166" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" s="15"/>
@@ -15979,10 +15991,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16013,11 +16025,11 @@
       <c r="A2" s="60" t="s">
         <v>436</v>
       </c>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="166" t="s">
         <v>454</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -17662,11 +17674,11 @@
       <c r="A2" s="59" t="s">
         <v>436</v>
       </c>
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="167" t="s">
         <v>447</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
@@ -17865,11 +17877,11 @@
       <c r="A2" s="59" t="s">
         <v>436</v>
       </c>
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="167" t="s">
         <v>448</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
@@ -18232,11 +18244,11 @@
       <c r="A2" s="59" t="s">
         <v>436</v>
       </c>
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="167" t="s">
         <v>455</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
@@ -18363,7 +18375,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18390,11 +18402,11 @@
       <c r="A2" s="59" t="s">
         <v>436</v>
       </c>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="168" t="s">
         <v>698</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
@@ -18554,9 +18566,9 @@
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18584,11 +18596,11 @@
       <c r="A2" s="59" t="s">
         <v>436</v>
       </c>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="168" t="s">
         <v>787</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
@@ -18700,6 +18712,116 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>101</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>102</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>103</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>104</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10009</Type>
+    <SequenceNumber>105</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="bb72b7f4-c981-47a4-a26e-043e4b78ebf3" ContentTypeId="0x010100CE61D9DC7AFC6844B595FD0A55B75DF7" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="NHSD Portfolio Document (8 years)" ma:contentTypeID="0x010100CE61D9DC7AFC6844B595FD0A55B75DF7004F50C1BCCACB1449A1E6F21B442043ED" ma:contentTypeVersion="4" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="a1c15b439565651e633ab854196fb81e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5668c8bc-6c30-45e9-80ca-5109d4270dfd" xmlns:ns3="fd99328b-ad0f-4a07-bc01-42c4f74e2fcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60d1fb537fdff0e2362399e67e746ed8" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19002,155 +19124,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="bb72b7f4-c981-47a4-a26e-043e4b78ebf3" ContentTypeId="0x010100CE61D9DC7AFC6844B595FD0A55B75DF7" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>101</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>102</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>103</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>104</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10009</Type>
-    <SequenceNumber>105</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<p:Policy xmlns:p="office.server.policy" id="" local="true">
-  <p:Name>NHSD Portfolio Document (8 years)</p:Name>
-  <p:Description/>
-  <p:Statement>This document implements 8 years retention from Authored Date</p:Statement>
-  <p:PolicyItems>
-    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x010100CE61D9DC7AFC6844B595FD0A55B75DF7|-2054357789" UniqueId="c9a81329-e124-4cbc-9b7a-8099d020f266">
-      <p:Name>Retention</p:Name>
-      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
-      <p:CustomData>
-        <Schedules nextStageId="3">
-          <Schedule type="Default">
-            <stages>
-              <data stageId="1">
-                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
-                  <number>8</number>
-                  <property>AuthoredDate</property>
-                  <propertyId>78342c6d-8801-441d-a333-a9f070617aff</propertyId>
-                  <period>years</period>
-                </formula>
-                <action type="action" id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Action.Skip"/>
-              </data>
-              <data stageId="2">
-                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
-                  <number>22</number>
-                  <property>AuthoredDate</property>
-                  <propertyId>78342c6d-8801-441d-a333-a9f070617aff</propertyId>
-                  <period>years</period>
-                </formula>
-                <action type="action" id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Action.MoveToRecycleBin"/>
-              </data>
-            </stages>
-          </Schedule>
-        </Schedules>
-      </p:CustomData>
-    </p:PolicyItem>
-  </p:PolicyItems>
-</p:Policy>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19199,14 +19179,62 @@
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:Policy xmlns:p="office.server.policy" id="" local="true">
+  <p:Name>NHSD Portfolio Document (8 years)</p:Name>
+  <p:Description/>
+  <p:Statement>This document implements 8 years retention from Authored Date</p:Statement>
+  <p:PolicyItems>
+    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x010100CE61D9DC7AFC6844B595FD0A55B75DF7|-2054357789" UniqueId="c9a81329-e124-4cbc-9b7a-8099d020f266">
+      <p:Name>Retention</p:Name>
+      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
+      <p:CustomData>
+        <Schedules nextStageId="3">
+          <Schedule type="Default">
+            <stages>
+              <data stageId="1">
+                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
+                  <number>8</number>
+                  <property>AuthoredDate</property>
+                  <propertyId>78342c6d-8801-441d-a333-a9f070617aff</propertyId>
+                  <period>years</period>
+                </formula>
+                <action type="action" id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Action.Skip"/>
+              </data>
+              <data stageId="2">
+                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
+                  <number>22</number>
+                  <property>AuthoredDate</property>
+                  <propertyId>78342c6d-8801-441d-a333-a9f070617aff</propertyId>
+                  <period>years</period>
+                </formula>
+                <action type="action" id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Action.MoveToRecycleBin"/>
+              </data>
+            </stages>
+          </Schedule>
+        </Schedules>
+      </p:CustomData>
+    </p:PolicyItem>
+  </p:PolicyItems>
+</p:Policy>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA4677E9-5489-40B5-9440-41D9009D5C13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A6D99D-D28F-4F51-9CF3-0F2D2247AAAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{135498CA-7A93-4C61-9FF7-49B80243C8F2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19226,26 +19254,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A6D99D-D28F-4F51-9CF3-0F2D2247AAAD}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEC01061-A2CF-4191-B67F-29A55016463D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA4677E9-5489-40B5-9440-41D9009D5C13}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19405931-A81E-40EA-8A05-F46780F42396}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="office.server.policy"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19269,9 +19281,9 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEC01061-A2CF-4191-B67F-29A55016463D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19405931-A81E-40EA-8A05-F46780F42396}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="office.server.policy"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>